--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>content_en</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
@@ -40,18 +43,27 @@
     <t>备注</t>
   </si>
   <si>
+    <t>用处</t>
+  </si>
+  <si>
     <t>神秘时代</t>
   </si>
   <si>
     <t>ThumAge</t>
   </si>
   <si>
+    <t>标题</t>
+  </si>
+  <si>
     <t>开始</t>
   </si>
   <si>
     <t>Start</t>
   </si>
   <si>
+    <t>游戏开始界面</t>
+  </si>
+  <si>
     <t>设置</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t>Design</t>
   </si>
   <si>
+    <t>制作者名单</t>
+  </si>
+  <si>
     <t>程序</t>
   </si>
   <si>
@@ -92,6 +107,111 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>设置界面</t>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>设置界面-语言</t>
+  </si>
+  <si>
+    <t>全屏</t>
+  </si>
+  <si>
+    <t>Full Screen</t>
+  </si>
+  <si>
+    <t>设置界面-屏幕</t>
+  </si>
+  <si>
+    <t>锁定帧数</t>
+  </si>
+  <si>
+    <t>Lock Frames</t>
+  </si>
+  <si>
+    <t>帧数</t>
+  </si>
+  <si>
+    <t>Frames</t>
+  </si>
+  <si>
+    <t>阴影距离</t>
+  </si>
+  <si>
+    <t>Shadow Distance</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>设置界面-音频</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>抗锯齿模式</t>
+  </si>
+  <si>
+    <t>Anti-aliasing</t>
+  </si>
+  <si>
+    <t>抗锯齿质量</t>
+  </si>
+  <si>
+    <t>Anti-aliasing Level</t>
+  </si>
+  <si>
+    <t>已开启</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>控件-开启</t>
+  </si>
+  <si>
+    <t>已关闭</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>控件-关闭</t>
   </si>
 </sst>
 </file>
@@ -100,8 +220,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -128,6 +248,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -136,6 +278,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,38 +300,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,25 +339,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,44 +364,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,15 +577,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,6 +591,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +619,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,11 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,15 +677,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,19 +1179,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,126 +1202,372 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>10001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>10002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +136,63 @@
     <t>Control</t>
   </si>
   <si>
+    <t>角色创建界面</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>发色</t>
+  </si>
+  <si>
+    <t>Hair Color</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>肤色</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>嘴巴</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
     <t>语言</t>
   </si>
   <si>
@@ -196,6 +253,57 @@
     <t>Anti-aliasing Level</t>
   </si>
   <si>
+    <t>显示帧数</t>
+  </si>
+  <si>
+    <t>Show Frames</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>Screen Resolution</t>
+  </si>
+  <si>
+    <t>暂无数据</t>
+  </si>
+  <si>
+    <t>No Data</t>
+  </si>
+  <si>
+    <t>游戏存档</t>
+  </si>
+  <si>
+    <t>创建</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>名字：</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>游戏时间：</t>
+  </si>
+  <si>
+    <t>Game Time:</t>
+  </si>
+  <si>
+    <t>游玩时间：</t>
+  </si>
+  <si>
+    <t>Play Time:</t>
+  </si>
+  <si>
     <t>已开启</t>
   </si>
   <si>
@@ -212,6 +320,72 @@
   </si>
   <si>
     <t>控件-关闭</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>控件-确认</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>显示-低</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>显示-中</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>显示-高</t>
+  </si>
+  <si>
+    <t>是否删除该存档？</t>
+  </si>
+  <si>
+    <t>Do you want to delete the archive?</t>
+  </si>
+  <si>
+    <t>弹窗</t>
+  </si>
+  <si>
+    <t>是否以此角色开始游戏？</t>
+  </si>
+  <si>
+    <t>Do you start the game as this character?</t>
+  </si>
+  <si>
+    <t>还没有输入名字</t>
+  </si>
+  <si>
+    <t>No name entered</t>
+  </si>
+  <si>
+    <t>提示</t>
   </si>
 </sst>
 </file>
@@ -219,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -230,6 +404,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,14 +430,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,25 +451,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,27 +511,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,16 +535,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,21 +550,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,19 +560,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,157 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,11 +769,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,8 +811,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,17 +826,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,17 +851,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -685,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +871,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,16 +1353,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1418,156 +1592,520 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>10001</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>205</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>10001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
         <v>10002</v>
       </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>10003</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>10004</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>10011</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>10012</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>10013</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>20001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>20002</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>30001</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17580" windowHeight="8700"/>
+    <workbookView windowWidth="20145" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -265,6 +265,12 @@
     <t>Screen Resolution</t>
   </si>
   <si>
+    <t>阴影质量</t>
+  </si>
+  <si>
+    <t>Shadow Resolution</t>
+  </si>
+  <si>
     <t>暂无数据</t>
   </si>
   <si>
@@ -362,6 +368,15 @@
   </si>
   <si>
     <t>显示-高</t>
+  </si>
+  <si>
+    <t>极</t>
+  </si>
+  <si>
+    <t>Ultra</t>
+  </si>
+  <si>
+    <t>显示-极</t>
   </si>
   <si>
     <t>是否删除该存档？</t>
@@ -393,10 +408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -404,6 +419,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,37 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,8 +474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,22 +486,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,9 +528,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,6 +550,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -560,187 +575,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,17 +769,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,11 +793,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,8 +826,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,17 +836,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -851,6 +855,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -859,10 +874,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,133 +886,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,10 +1368,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1886,7 +1901,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
@@ -1895,26 +1910,26 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
@@ -1923,12 +1938,12 @@
         <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -1937,12 +1952,12 @@
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
         <v>92</v>
@@ -1951,12 +1966,12 @@
         <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
         <v>94</v>
@@ -1965,12 +1980,12 @@
         <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>10001</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
@@ -1979,54 +1994,54 @@
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
         <v>99</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>103</v>
-      </c>
-      <c r="D46" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
         <v>105</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B48" t="s">
         <v>107</v>
@@ -2035,68 +2050,68 @@
         <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
         <v>110</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>111</v>
-      </c>
-      <c r="D49" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>114</v>
-      </c>
-      <c r="D50" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>20001</v>
+        <v>10013</v>
       </c>
       <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
         <v>116</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>117</v>
-      </c>
-      <c r="D51" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>20002</v>
+        <v>10014</v>
       </c>
       <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
         <v>119</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B53" t="s">
         <v>121</v>
@@ -2106,6 +2121,34 @@
       </c>
       <c r="D53" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>20002</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>30001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Shadow Resolution</t>
+  </si>
+  <si>
+    <t>界面大小</t>
+  </si>
+  <si>
+    <t>UI Size</t>
   </si>
   <si>
     <t>暂无数据</t>
@@ -408,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -422,16 +428,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,35 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -482,17 +487,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,13 +527,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -551,6 +543,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,12 +581,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,7 +647,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,31 +695,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,121 +713,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,11 +775,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,21 +801,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,8 +823,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,7 +833,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +855,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -874,10 +880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,19 +892,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,13 +913,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,97 +931,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1368,10 +1374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1915,7 +1921,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -1924,26 +1930,26 @@
         <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>89</v>
-      </c>
-      <c r="D40" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -1952,12 +1958,12 @@
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
         <v>92</v>
@@ -1966,12 +1972,12 @@
         <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
         <v>94</v>
@@ -1980,12 +1986,12 @@
         <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
@@ -1994,12 +2000,12 @@
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>10001</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
         <v>98</v>
@@ -2008,54 +2014,54 @@
         <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
         <v>101</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>102</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
         <v>104</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>105</v>
-      </c>
-      <c r="D47" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
         <v>107</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B49" t="s">
         <v>109</v>
@@ -2064,82 +2070,82 @@
         <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>113</v>
-      </c>
-      <c r="D50" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>116</v>
-      </c>
-      <c r="D51" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
         <v>118</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>119</v>
-      </c>
-      <c r="D52" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>122</v>
-      </c>
-      <c r="D53" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
         <v>124</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>125</v>
-      </c>
-      <c r="D54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B55" t="s">
         <v>126</v>
@@ -2148,7 +2154,21 @@
         <v>127</v>
       </c>
       <c r="D55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>30001</v>
+      </c>
+      <c r="B56" t="s">
         <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="9555"/>
+    <workbookView windowWidth="18060" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t>UI Size</t>
+  </si>
+  <si>
+    <t>X轴速度</t>
+  </si>
+  <si>
+    <t>X Axis Speed</t>
+  </si>
+  <si>
+    <t>设置界面-控制</t>
+  </si>
+  <si>
+    <t>Y轴速度</t>
+  </si>
+  <si>
+    <t>Y Axis Speed</t>
   </si>
   <si>
     <t>暂无数据</t>
@@ -414,10 +429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -425,6 +440,27 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,29 +479,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,6 +493,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -487,11 +517,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,14 +537,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,20 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,19 +596,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,43 +752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,115 +776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,6 +801,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,15 +879,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -880,10 +895,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,133 +907,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,10 +1389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1935,7 +1950,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -1949,7 +1964,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -1963,7 +1978,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
         <v>92</v>
@@ -1972,68 +1987,68 @@
         <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
         <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>10001</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>10002</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s">
         <v>103</v>
@@ -2042,40 +2057,40 @@
         <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
         <v>106</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
         <v>109</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>110</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="B50" t="s">
         <v>111</v>
@@ -2089,7 +2104,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>10012</v>
+        <v>10004</v>
       </c>
       <c r="B51" t="s">
         <v>114</v>
@@ -2098,68 +2113,68 @@
         <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>118</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>10014</v>
+        <v>10012</v>
       </c>
       <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
         <v>120</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>121</v>
-      </c>
-      <c r="D53" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>20001</v>
+        <v>10013</v>
       </c>
       <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
         <v>123</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>124</v>
-      </c>
-      <c r="D54" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>20002</v>
+        <v>10014</v>
       </c>
       <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
         <v>126</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>127</v>
-      </c>
-      <c r="D55" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B56" t="s">
         <v>128</v>
@@ -2169,6 +2184,34 @@
       </c>
       <c r="D56" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>20002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>30001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18060" windowHeight="9870"/>
+    <workbookView windowWidth="30885" windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -329,6 +329,21 @@
   </si>
   <si>
     <t>Play Time:</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>Equip</t>
+  </si>
+  <si>
+    <t>角色详情</t>
+  </si>
+  <si>
+    <t>合成</t>
+  </si>
+  <si>
+    <t>Synthesis</t>
   </si>
   <si>
     <t>已开启</t>
@@ -429,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -444,7 +459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +467,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +487,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,30 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -537,6 +544,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,7 +596,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,13 +611,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,169 +671,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,6 +802,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -805,11 +829,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,21 +855,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,145 +910,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2062,7 +2077,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>10001</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s">
         <v>105</v>
@@ -2076,7 +2091,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>10002</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s">
         <v>108</v>
@@ -2085,40 +2100,40 @@
         <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
         <v>114</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>115</v>
-      </c>
-      <c r="D51" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="B52" t="s">
         <v>116</v>
@@ -2132,7 +2147,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>10012</v>
+        <v>10004</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
@@ -2141,68 +2156,68 @@
         <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>10014</v>
+        <v>10012</v>
       </c>
       <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
         <v>125</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>126</v>
-      </c>
-      <c r="D55" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>20001</v>
+        <v>10013</v>
       </c>
       <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
         <v>128</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>129</v>
-      </c>
-      <c r="D56" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>20002</v>
+        <v>10014</v>
       </c>
       <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" t="s">
         <v>131</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>132</v>
-      </c>
-      <c r="D57" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B58" t="s">
         <v>133</v>
@@ -2212,6 +2227,34 @@
       </c>
       <c r="D58" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>20002</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>30001</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30885" windowHeight="17940"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -344,6 +344,114 @@
   </si>
   <si>
     <t>Synthesis</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>Hats</t>
+  </si>
+  <si>
+    <t>装备类型</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>头饰</t>
+  </si>
+  <si>
+    <t>Headwear</t>
+  </si>
+  <si>
+    <t>左戒</t>
+  </si>
+  <si>
+    <t>Left Ring</t>
+  </si>
+  <si>
+    <t>右戒</t>
+  </si>
+  <si>
+    <t>Right Ring</t>
+  </si>
+  <si>
+    <t>披风</t>
+  </si>
+  <si>
+    <t>Cape</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>方块</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>种子</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>锄头</t>
+  </si>
+  <si>
+    <t>Hoe</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>Creature</t>
   </si>
   <si>
     <t>已开启</t>
@@ -444,10 +552,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -459,50 +567,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,9 +589,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,14 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -563,17 +665,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,16 +696,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,31 +719,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,19 +875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,127 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,15 +910,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -829,6 +928,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -840,6 +948,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,18 +978,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,11 +1004,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,145 +1018,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2089,7 +2197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="12" customHeight="1" spans="1:4">
       <c r="A49">
         <v>302</v>
       </c>
@@ -2103,9 +2211,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" ht="12" customHeight="1" spans="1:4">
       <c r="A50">
-        <v>10001</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
@@ -2117,144 +2225,480 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" ht="12" customHeight="1" spans="1:4">
       <c r="A51">
-        <v>10002</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" ht="12" customHeight="1" spans="1:4">
+      <c r="A52">
+        <v>403</v>
+      </c>
+      <c r="B52" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>114</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" ht="12" customHeight="1" spans="1:4">
+      <c r="A53">
+        <v>404</v>
+      </c>
+      <c r="B53" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>10003</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C53" t="s">
         <v>116</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" ht="12" customHeight="1" spans="1:4">
+      <c r="A54">
+        <v>405</v>
+      </c>
+      <c r="B54" t="s">
         <v>117</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C54" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>10004</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" ht="12" customHeight="1" spans="1:4">
+      <c r="A55">
+        <v>406</v>
+      </c>
+      <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>120</v>
       </c>
-      <c r="D53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>10011</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" ht="12" customHeight="1" spans="1:4">
+      <c r="A56">
+        <v>407</v>
+      </c>
+      <c r="B56" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>122</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" ht="12" customHeight="1" spans="1:4">
+      <c r="A57">
+        <v>408</v>
+      </c>
+      <c r="B57" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>10012</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C57" t="s">
         <v>124</v>
       </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>10013</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>10014</v>
-      </c>
-      <c r="B57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>20001</v>
+        <v>1000</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>20002</v>
+        <v>1001</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
+        <v>1002</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>1003</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>1011</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>1012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>1013</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>1014</v>
+      </c>
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1015</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>1016</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>1017</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>1021</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>1031</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>1032</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>1033</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>1101</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>10001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>10002</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>10003</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>10004</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>10011</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>10012</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>10013</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>10014</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>20001</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>20002</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
         <v>30001</v>
       </c>
-      <c r="B60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="8445" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>提示</t>
+  </si>
+  <si>
+    <t>素材不足，无法合成</t>
+  </si>
+  <si>
+    <t>Not enough material to synthesis</t>
   </si>
 </sst>
 </file>
@@ -552,10 +558,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -573,9 +579,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,39 +608,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,6 +647,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -665,8 +671,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,17 +695,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +710,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,6 +725,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -731,19 +749,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,49 +887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,97 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,15 +934,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -948,6 +945,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,32 +1010,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1018,145 +1024,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,10 +1518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2701,6 +2707,20 @@
         <v>176</v>
       </c>
     </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>30002</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8445" windowHeight="10965"/>
+    <workbookView windowWidth="16425" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -284,6 +284,24 @@
   </si>
   <si>
     <t>设置界面-控制</t>
+  </si>
+  <si>
+    <t>加载范围</t>
+  </si>
+  <si>
+    <t>Loading Range</t>
+  </si>
+  <si>
+    <t>设置界面-刷新范围</t>
+  </si>
+  <si>
+    <t>卸载范围</t>
+  </si>
+  <si>
+    <t>Unloading Range</t>
+  </si>
+  <si>
+    <t>设置界面-删除范围</t>
   </si>
   <si>
     <t>Y轴速度</t>
@@ -558,10 +576,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -587,17 +605,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,9 +641,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +651,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,41 +689,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,6 +709,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -725,6 +743,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -737,12 +761,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -755,19 +809,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,79 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,49 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,6 +952,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -945,50 +972,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,6 +999,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1024,10 +1042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,34 +1054,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,94 +1090,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1518,10 +1536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2093,7 +2111,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -2102,376 +2120,376 @@
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
         <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
+        <v>205</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
         <v>301</v>
       </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" ht="12" customHeight="1" spans="1:4">
-      <c r="A49">
-        <v>302</v>
-      </c>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" ht="12" customHeight="1" spans="1:4">
-      <c r="A50">
-        <v>401</v>
-      </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" ht="12" customHeight="1" spans="1:4">
       <c r="A51">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" ht="12" customHeight="1" spans="1:4">
       <c r="A52">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:4">
       <c r="A53">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" ht="12" customHeight="1" spans="1:4">
       <c r="A54">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
         <v>118</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="55" ht="12" customHeight="1" spans="1:4">
       <c r="A55">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" ht="12" customHeight="1" spans="1:4">
       <c r="A56">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:4">
       <c r="A57">
+        <v>406</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" ht="12" customHeight="1" spans="1:4">
+      <c r="A58">
+        <v>407</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" ht="12" customHeight="1" spans="1:4">
+      <c r="A59">
         <v>408</v>
       </c>
-      <c r="B57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>1000</v>
-      </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>1001</v>
-      </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
         <v>133</v>
-      </c>
-      <c r="D61" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B68" t="s">
         <v>123</v>
@@ -2480,110 +2498,110 @@
         <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1101</v>
+        <v>1032</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>10001</v>
+        <v>1033</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>10002</v>
+        <v>1101</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B76" t="s">
         <v>152</v>
@@ -2597,7 +2615,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B77" t="s">
         <v>155</v>
@@ -2606,40 +2624,40 @@
         <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>10012</v>
+        <v>10004</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="B80" t="s">
         <v>163</v>
@@ -2653,7 +2671,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>10014</v>
+        <v>10012</v>
       </c>
       <c r="B81" t="s">
         <v>166</v>
@@ -2667,7 +2685,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>20001</v>
+        <v>10013</v>
       </c>
       <c r="B82" t="s">
         <v>169</v>
@@ -2681,7 +2699,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>20002</v>
+        <v>10014</v>
       </c>
       <c r="B83" t="s">
         <v>172</v>
@@ -2690,35 +2708,63 @@
         <v>173</v>
       </c>
       <c r="D83" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
+        <v>20002</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>30001</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
         <v>30002</v>
       </c>
-      <c r="B85" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" t="s">
-        <v>176</v>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="10965"/>
+    <workbookView windowWidth="17430" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="188">
   <si>
     <t>id</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Y Axis Speed</t>
+  </si>
+  <si>
+    <t>视野</t>
+  </si>
+  <si>
+    <t>Field of vision</t>
+  </si>
+  <si>
+    <t>设置界面-摄像头视野</t>
   </si>
   <si>
     <t>暂无数据</t>
@@ -577,8 +586,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -605,7 +614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,21 +622,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,14 +638,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,6 +675,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -696,15 +690,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,6 +714,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +728,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -743,73 +752,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,109 +920,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,15 +961,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -976,6 +976,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -987,24 +1005,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,6 +1026,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1042,10 +1051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,133 +1063,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1536,10 +1545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2153,7 +2162,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>98</v>
@@ -2167,7 +2176,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
         <v>101</v>
@@ -2176,82 +2185,82 @@
         <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
         <v>103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
         <v>301</v>
-      </c>
-      <c r="B50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" ht="12" customHeight="1" spans="1:4">
-      <c r="A51">
-        <v>302</v>
       </c>
       <c r="B51" t="s">
         <v>114</v>
@@ -2260,138 +2269,138 @@
         <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" ht="12" customHeight="1" spans="1:4">
       <c r="A52">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" t="s">
         <v>116</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:4">
       <c r="A53">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" ht="12" customHeight="1" spans="1:4">
       <c r="A54">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" ht="12" customHeight="1" spans="1:4">
       <c r="A55">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
         <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="56" ht="12" customHeight="1" spans="1:4">
       <c r="A56">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:4">
       <c r="A57">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:4">
       <c r="A58">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
       <c r="A59">
+        <v>407</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" ht="12" customHeight="1" spans="1:4">
+      <c r="A60">
         <v>408</v>
       </c>
-      <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>1000</v>
-      </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
@@ -2400,222 +2409,222 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
         <v>136</v>
-      </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1101</v>
+        <v>1033</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>10001</v>
+        <v>1101</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B77" t="s">
         <v>155</v>
@@ -2629,7 +2638,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B78" t="s">
         <v>158</v>
@@ -2643,7 +2652,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B79" t="s">
         <v>161</v>
@@ -2652,26 +2661,26 @@
         <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B81" t="s">
         <v>166</v>
@@ -2685,7 +2694,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B82" t="s">
         <v>169</v>
@@ -2699,7 +2708,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B83" t="s">
         <v>172</v>
@@ -2713,7 +2722,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B84" t="s">
         <v>175</v>
@@ -2727,7 +2736,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B85" t="s">
         <v>178</v>
@@ -2736,26 +2745,26 @@
         <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" t="s">
         <v>180</v>
-      </c>
-      <c r="C86" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B87" t="s">
         <v>183</v>
@@ -2764,7 +2773,21 @@
         <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>30002</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17430" windowHeight="11505"/>
+    <workbookView windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -286,6 +286,12 @@
     <t>设置界面-控制</t>
   </si>
   <si>
+    <t>Y轴速度</t>
+  </si>
+  <si>
+    <t>Y Axis Speed</t>
+  </si>
+  <si>
     <t>加载范围</t>
   </si>
   <si>
@@ -302,12 +308,6 @@
   </si>
   <si>
     <t>设置界面-删除范围</t>
-  </si>
-  <si>
-    <t>Y轴速度</t>
-  </si>
-  <si>
-    <t>Y Axis Speed</t>
   </si>
   <si>
     <t>视野</t>
@@ -1547,8 +1547,8 @@
   <sheetPr/>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
@@ -2129,40 +2129,40 @@
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>97</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
         <v>98</v>
@@ -2791,6 +2791,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:D88">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220"/>
+    <workbookView windowWidth="23235" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="190">
   <si>
     <t>id</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Clothes</t>
+  </si>
+  <si>
+    <t>输入名字...</t>
+  </si>
+  <si>
+    <t>Enter the name...</t>
   </si>
   <si>
     <t>语言</t>
@@ -1545,10 +1551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -1933,40 +1939,40 @@
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -1975,12 +1981,12 @@
         <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
         <v>69</v>
@@ -1989,12 +1995,12 @@
         <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -2003,40 +2009,40 @@
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -2045,12 +2051,12 @@
         <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
@@ -2059,12 +2065,12 @@
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
@@ -2073,12 +2079,12 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
@@ -2087,12 +2093,12 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -2101,12 +2107,12 @@
         <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -2115,26 +2121,26 @@
         <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
         <v>92</v>
@@ -2143,68 +2149,68 @@
         <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
         <v>95</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
         <v>98</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
         <v>101</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
         <v>104</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>105</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
         <v>106</v>
@@ -2213,12 +2219,12 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
         <v>108</v>
@@ -2227,12 +2233,12 @@
         <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
@@ -2241,12 +2247,12 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
@@ -2255,12 +2261,12 @@
         <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
         <v>114</v>
@@ -2269,26 +2275,26 @@
         <v>115</v>
       </c>
       <c r="D51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>301</v>
+      </c>
+      <c r="B52" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" ht="12" customHeight="1" spans="1:4">
-      <c r="A52">
-        <v>302</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>118</v>
-      </c>
-      <c r="D52" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="53" ht="12" customHeight="1" spans="1:4">
       <c r="A53">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
@@ -2297,40 +2303,40 @@
         <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" ht="12" customHeight="1" spans="1:4">
       <c r="A54">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" ht="12" customHeight="1" spans="1:4">
       <c r="A55">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
         <v>123</v>
-      </c>
-      <c r="D55" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="56" ht="12" customHeight="1" spans="1:4">
       <c r="A56">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s">
         <v>124</v>
@@ -2339,12 +2345,12 @@
         <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:4">
       <c r="A57">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s">
         <v>126</v>
@@ -2353,12 +2359,12 @@
         <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:4">
       <c r="A58">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s">
         <v>128</v>
@@ -2367,12 +2373,12 @@
         <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
       <c r="A59">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s">
         <v>130</v>
@@ -2381,12 +2387,12 @@
         <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" ht="12" customHeight="1" spans="1:4">
       <c r="A60">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s">
         <v>132</v>
@@ -2395,12 +2401,12 @@
         <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" ht="12" customHeight="1" spans="1:4">
       <c r="A61">
-        <v>1000</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
@@ -2409,26 +2415,26 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
         <v>137</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>138</v>
-      </c>
-      <c r="D62" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B63" t="s">
         <v>139</v>
@@ -2437,12 +2443,12 @@
         <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B64" t="s">
         <v>141</v>
@@ -2451,54 +2457,54 @@
         <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B68" t="s">
         <v>124</v>
@@ -2507,12 +2513,12 @@
         <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B69" t="s">
         <v>126</v>
@@ -2521,54 +2527,54 @@
         <v>127</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B73" t="s">
         <v>147</v>
@@ -2577,12 +2583,12 @@
         <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B74" t="s">
         <v>149</v>
@@ -2591,12 +2597,12 @@
         <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B75" t="s">
         <v>151</v>
@@ -2605,12 +2611,12 @@
         <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1101</v>
+        <v>1033</v>
       </c>
       <c r="B76" t="s">
         <v>153</v>
@@ -2619,12 +2625,12 @@
         <v>154</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>10001</v>
+        <v>1101</v>
       </c>
       <c r="B77" t="s">
         <v>155</v>
@@ -2633,54 +2639,54 @@
         <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
         <v>158</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>159</v>
-      </c>
-      <c r="D78" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
         <v>161</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>162</v>
-      </c>
-      <c r="D79" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
         <v>164</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B81" t="s">
         <v>166</v>
@@ -2689,82 +2695,82 @@
         <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
         <v>169</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>170</v>
-      </c>
-      <c r="D82" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B83" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" t="s">
         <v>172</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>173</v>
-      </c>
-      <c r="D83" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
         <v>175</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>176</v>
-      </c>
-      <c r="D84" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
         <v>178</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>179</v>
-      </c>
-      <c r="D85" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
         <v>181</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>182</v>
-      </c>
-      <c r="D86" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B87" t="s">
         <v>183</v>
@@ -2773,21 +2779,35 @@
         <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
+        <v>30001</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
         <v>30002</v>
       </c>
-      <c r="B88" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" t="s">
         <v>187</v>
-      </c>
-      <c r="D88" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="10545"/>
+    <workbookView windowWidth="18390" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="205">
   <si>
     <t>id</t>
   </si>
@@ -199,6 +199,18 @@
     <t>Enter the name...</t>
   </si>
   <si>
+    <t>种子</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>输入种子...</t>
+  </si>
+  <si>
+    <t>Enter the seed...</t>
+  </si>
+  <si>
     <t>语言</t>
   </si>
   <si>
@@ -364,6 +376,12 @@
     <t>Play Time:</t>
   </si>
   <si>
+    <t>种子:</t>
+  </si>
+  <si>
+    <t>Seed:</t>
+  </si>
+  <si>
     <t>装备</t>
   </si>
   <si>
@@ -439,12 +457,6 @@
     <t>Block</t>
   </si>
   <si>
-    <t>种子</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
     <t>食物</t>
   </si>
   <si>
@@ -485,6 +497,39 @@
   </si>
   <si>
     <t>Creature</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>角色状态</t>
+  </si>
+  <si>
+    <t>耐力值</t>
+  </si>
+  <si>
+    <t>Stamina</t>
+  </si>
+  <si>
+    <t>魔力值</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>饱食值</t>
+  </si>
+  <si>
+    <t>Saturation</t>
+  </si>
+  <si>
+    <t>氧气值</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
   </si>
   <si>
     <t>已开启</t>
@@ -1551,10 +1596,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1944,7 +1989,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
@@ -1953,54 +1998,54 @@
         <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -2009,12 +2054,12 @@
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
@@ -2023,26 +2068,26 @@
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -2051,26 +2096,26 @@
         <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
@@ -2079,12 +2124,12 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
@@ -2093,12 +2138,12 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -2107,12 +2152,12 @@
         <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -2121,12 +2166,12 @@
         <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
         <v>89</v>
@@ -2135,110 +2180,110 @@
         <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
-        <v>93</v>
-      </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
         <v>97</v>
       </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
         <v>103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
         <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
         <v>108</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>109</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
@@ -2247,12 +2292,12 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
@@ -2261,12 +2306,12 @@
         <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
         <v>114</v>
@@ -2275,12 +2320,12 @@
         <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
         <v>116</v>
@@ -2289,96 +2334,96 @@
         <v>117</v>
       </c>
       <c r="D52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" ht="12" customHeight="1" spans="1:4">
-      <c r="A53">
-        <v>302</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
         <v>120</v>
       </c>
-      <c r="D53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" ht="12" customHeight="1" spans="1:4">
-      <c r="A54">
-        <v>401</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>301</v>
+      </c>
+      <c r="B55" t="s">
         <v>122</v>
       </c>
-      <c r="D54" t="s">
+      <c r="C55" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="55" ht="12" customHeight="1" spans="1:4">
-      <c r="A55">
-        <v>402</v>
-      </c>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" ht="12" customHeight="1" spans="1:4">
       <c r="A56">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
         <v>124</v>
-      </c>
-      <c r="C56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:4">
       <c r="A57">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:4">
       <c r="A58">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
         <v>129</v>
-      </c>
-      <c r="D58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
       <c r="A59">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B59" t="s">
         <v>130</v>
@@ -2387,12 +2432,12 @@
         <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" ht="12" customHeight="1" spans="1:4">
       <c r="A60">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B60" t="s">
         <v>132</v>
@@ -2401,12 +2446,12 @@
         <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:4">
       <c r="A61">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
@@ -2415,12 +2460,12 @@
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" ht="12" customHeight="1" spans="1:4">
       <c r="A62">
-        <v>1000</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s">
         <v>136</v>
@@ -2429,166 +2474,166 @@
         <v>137</v>
       </c>
       <c r="D62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" ht="12" customHeight="1" spans="1:4">
+      <c r="A63">
+        <v>407</v>
+      </c>
+      <c r="B63" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>1001</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>139</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" ht="12" customHeight="1" spans="1:4">
+      <c r="A64">
+        <v>408</v>
+      </c>
+      <c r="B64" t="s">
         <v>140</v>
       </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>1002</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>141</v>
       </c>
-      <c r="C64" t="s">
-        <v>142</v>
-      </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
         <v>143</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>144</v>
-      </c>
-      <c r="D65" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="B74" t="s">
         <v>149</v>
@@ -2597,217 +2642,329 @@
         <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D75" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1101</v>
+        <v>1031</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>10001</v>
+        <v>1032</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>10002</v>
+        <v>1033</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>10003</v>
+        <v>1101</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>10004</v>
+        <v>2001</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>10011</v>
+        <v>2002</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D82" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>10012</v>
+        <v>2003</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>10013</v>
+        <v>2004</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>10014</v>
+        <v>2005</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>20002</v>
+        <v>10002</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>30001</v>
+        <v>10003</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
+        <v>10004</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>10011</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>10012</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>10013</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>10014</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>20001</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>20002</v>
+      </c>
+      <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>30001</v>
+      </c>
+      <c r="B96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
         <v>30002</v>
       </c>
-      <c r="B89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" t="s">
-        <v>187</v>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18390" windowHeight="9240"/>
+    <workbookView windowWidth="23235" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -442,6 +442,24 @@
     <t>Cape</t>
   </si>
   <si>
+    <t>继续游戏</t>
+  </si>
+  <si>
+    <t>退出游戏界面</t>
+  </si>
+  <si>
+    <t>返回主菜单</t>
+  </si>
+  <si>
+    <t>Back Main Menu</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>Exit Game</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
@@ -614,6 +632,18 @@
   </si>
   <si>
     <t>Do you start the game as this character?</t>
+  </si>
+  <si>
+    <t>是否返回主菜单？</t>
+  </si>
+  <si>
+    <t>Do you want to return to the main menu?</t>
+  </si>
+  <si>
+    <t>是否退出游戏？</t>
+  </si>
+  <si>
+    <t>Do you want to exit the game?</t>
   </si>
   <si>
     <t>还没有输入名字</t>
@@ -1596,10 +1626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2505,205 +2535,205 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" ht="12" customHeight="1" spans="1:4">
       <c r="A65">
-        <v>1000</v>
+        <v>901</v>
       </c>
       <c r="B65" t="s">
         <v>142</v>
       </c>
       <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
         <v>143</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" ht="12" customHeight="1" spans="1:4">
+      <c r="A66">
+        <v>902</v>
+      </c>
+      <c r="B66" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>1001</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>145</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" ht="12" customHeight="1" spans="1:4">
+      <c r="A67">
+        <v>903</v>
+      </c>
+      <c r="B67" t="s">
         <v>146</v>
       </c>
-      <c r="D66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>1002</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" t="s">
         <v>150</v>
-      </c>
-      <c r="D74" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
@@ -2712,12 +2742,12 @@
         <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>1101</v>
+        <v>1031</v>
       </c>
       <c r="B80" t="s">
         <v>159</v>
@@ -2726,12 +2756,12 @@
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>2001</v>
+        <v>1032</v>
       </c>
       <c r="B81" t="s">
         <v>161</v>
@@ -2740,54 +2770,54 @@
         <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>2002</v>
+        <v>1033</v>
       </c>
       <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
         <v>164</v>
       </c>
-      <c r="C82" t="s">
-        <v>165</v>
-      </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>2003</v>
+        <v>1101</v>
       </c>
       <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
         <v>166</v>
       </c>
-      <c r="C83" t="s">
-        <v>167</v>
-      </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
         <v>168</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>169</v>
-      </c>
-      <c r="D84" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B85" t="s">
         <v>170</v>
@@ -2796,12 +2826,12 @@
         <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>10001</v>
+        <v>2003</v>
       </c>
       <c r="B86" t="s">
         <v>172</v>
@@ -2810,130 +2840,130 @@
         <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>10002</v>
+        <v>2004</v>
       </c>
       <c r="B87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" t="s">
         <v>175</v>
       </c>
-      <c r="C87" t="s">
-        <v>176</v>
-      </c>
       <c r="D87" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>10003</v>
+        <v>2005</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>10011</v>
+        <v>10002</v>
       </c>
       <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" t="s">
         <v>183</v>
-      </c>
-      <c r="C90" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>10012</v>
+        <v>10003</v>
       </c>
       <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
         <v>186</v>
-      </c>
-      <c r="C91" t="s">
-        <v>187</v>
-      </c>
-      <c r="D91" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>10013</v>
+        <v>10004</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D92" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>10014</v>
+        <v>10011</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>20001</v>
+        <v>10012</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>20002</v>
+        <v>10013</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D95" t="s">
         <v>197</v>
@@ -2941,30 +2971,100 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>30001</v>
+        <v>10014</v>
       </c>
       <c r="B96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" t="s">
         <v>200</v>
-      </c>
-      <c r="C96" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
+        <v>20001</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>20002</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>20003</v>
+      </c>
+      <c r="B99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>20004</v>
+      </c>
+      <c r="B100" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>30001</v>
+      </c>
+      <c r="B101" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
         <v>30002</v>
       </c>
-      <c r="B97" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" t="s">
-        <v>204</v>
-      </c>
-      <c r="D97" t="s">
-        <v>202</v>
+      <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="10545"/>
+    <workbookView windowWidth="23235" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -397,6 +397,9 @@
     <t>Synthesis</t>
   </si>
   <si>
+    <t>合成界面</t>
+  </si>
+  <si>
     <t>帽子</t>
   </si>
   <si>
@@ -440,6 +443,12 @@
   </si>
   <si>
     <t>Cape</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>Trousers</t>
   </si>
   <si>
     <t>继续游戏</t>
@@ -1626,10 +1635,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2425,587 +2434,587 @@
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:4">
       <c r="A57">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
         <v>127</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:4">
       <c r="A58">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
       <c r="A59">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
         <v>130</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="60" ht="12" customHeight="1" spans="1:4">
       <c r="A60">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s">
         <v>132</v>
       </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:4">
       <c r="A61">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s">
         <v>134</v>
       </c>
-      <c r="C61" t="s">
-        <v>135</v>
-      </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" ht="12" customHeight="1" spans="1:4">
       <c r="A62">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
         <v>136</v>
       </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:4">
       <c r="A63">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
         <v>138</v>
       </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" ht="12" customHeight="1" spans="1:4">
       <c r="A64">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
         <v>140</v>
       </c>
-      <c r="C64" t="s">
-        <v>141</v>
-      </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" ht="12" customHeight="1" spans="1:4">
       <c r="A65">
-        <v>901</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
         <v>142</v>
       </c>
-      <c r="C65" t="s">
-        <v>113</v>
-      </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" ht="12" customHeight="1" spans="1:4">
       <c r="A66">
-        <v>902</v>
+        <v>409</v>
       </c>
       <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
         <v>144</v>
       </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" ht="12" customHeight="1" spans="1:4">
       <c r="A67">
+        <v>901</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" ht="12" customHeight="1" spans="1:4">
+      <c r="A68">
+        <v>902</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" ht="12" customHeight="1" spans="1:4">
+      <c r="A69">
         <v>903</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" t="s">
         <v>146</v>
-      </c>
-      <c r="C67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>1000</v>
-      </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>1001</v>
-      </c>
-      <c r="B69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
         <v>153</v>
-      </c>
-      <c r="C71" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
         <v>161</v>
       </c>
-      <c r="C81" t="s">
-        <v>162</v>
-      </c>
       <c r="D81" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
         <v>163</v>
       </c>
-      <c r="C82" t="s">
-        <v>164</v>
-      </c>
       <c r="D82" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>1101</v>
+        <v>1032</v>
       </c>
       <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
         <v>165</v>
       </c>
-      <c r="C83" t="s">
-        <v>166</v>
-      </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>2001</v>
+        <v>1033</v>
       </c>
       <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
         <v>167</v>
       </c>
-      <c r="C84" t="s">
-        <v>168</v>
-      </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>2002</v>
+        <v>1101</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
         <v>172</v>
-      </c>
-      <c r="C86" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
         <v>174</v>
       </c>
-      <c r="C87" t="s">
-        <v>175</v>
-      </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
         <v>176</v>
       </c>
-      <c r="C88" t="s">
-        <v>177</v>
-      </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>10001</v>
+        <v>2004</v>
       </c>
       <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
         <v>178</v>
       </c>
-      <c r="C89" t="s">
-        <v>179</v>
-      </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>10002</v>
+        <v>2005</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D90" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
         <v>189</v>
-      </c>
-      <c r="C93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D93" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>10012</v>
+        <v>10004</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>10014</v>
+        <v>10012</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>20001</v>
+        <v>10013</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>20002</v>
+        <v>10014</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s">
         <v>203</v>
@@ -3013,58 +3022,86 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" t="s">
         <v>206</v>
-      </c>
-      <c r="C99" t="s">
-        <v>207</v>
-      </c>
-      <c r="D99" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B100" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" t="s">
         <v>208</v>
       </c>
-      <c r="C100" t="s">
-        <v>209</v>
-      </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>30001</v>
+        <v>20003</v>
       </c>
       <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
         <v>210</v>
       </c>
-      <c r="C101" t="s">
-        <v>211</v>
-      </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
+        <v>20004</v>
+      </c>
+      <c r="B102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>30001</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
         <v>30002</v>
       </c>
-      <c r="B102" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" t="s">
-        <v>212</v>
+      <c r="B104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C104" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="9945"/>
+    <workbookView windowWidth="23955" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -557,6 +557,72 @@
   </si>
   <si>
     <t>Oxygen</t>
+  </si>
+  <si>
+    <t>防御-物理</t>
+  </si>
+  <si>
+    <t>Defense Physical</t>
+  </si>
+  <si>
+    <t>防御-魔法</t>
+  </si>
+  <si>
+    <t>Defense Magic</t>
+  </si>
+  <si>
+    <t>抗性-金</t>
+  </si>
+  <si>
+    <t>Defense Metal</t>
+  </si>
+  <si>
+    <t>抗性-木</t>
+  </si>
+  <si>
+    <t>Defense Wooden</t>
+  </si>
+  <si>
+    <t>抗性-水</t>
+  </si>
+  <si>
+    <t>Defense Water</t>
+  </si>
+  <si>
+    <t>抗性-火</t>
+  </si>
+  <si>
+    <t>Defense Fire</t>
+  </si>
+  <si>
+    <t>抗性-土</t>
+  </si>
+  <si>
+    <t>Defense Earth</t>
+  </si>
+  <si>
+    <t>物理伤害</t>
+  </si>
+  <si>
+    <t>Physical Damage</t>
+  </si>
+  <si>
+    <t>击退距离</t>
+  </si>
+  <si>
+    <t>Knockback Dis</t>
+  </si>
+  <si>
+    <t>击退时间</t>
+  </si>
+  <si>
+    <t>Knockback Time</t>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+  </si>
+  <si>
+    <t>Magic Damage</t>
   </si>
   <si>
     <t>已开启</t>
@@ -1635,10 +1701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2910,7 +2976,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>10001</v>
+        <v>2006</v>
       </c>
       <c r="B91" t="s">
         <v>181</v>
@@ -2919,189 +2985,343 @@
         <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>10002</v>
+        <v>2007</v>
       </c>
       <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
         <v>184</v>
       </c>
-      <c r="C92" t="s">
-        <v>185</v>
-      </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>10003</v>
+        <v>2008</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>10004</v>
+        <v>2009</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D94" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>10011</v>
+        <v>2010</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>10012</v>
+        <v>2011</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>10013</v>
+        <v>2012</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>10014</v>
+        <v>2013</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>20001</v>
+        <v>2014</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>20002</v>
+        <v>2015</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>20003</v>
+        <v>2016</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>20004</v>
+        <v>10001</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>30001</v>
+        <v>10002</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
+        <v>10003</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>10004</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>10011</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>10012</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>10013</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>10014</v>
+      </c>
+      <c r="B109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>20001</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>20002</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>20003</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>20004</v>
+      </c>
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>30001</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
         <v>30002</v>
       </c>
-      <c r="B104" t="s">
-        <v>216</v>
-      </c>
-      <c r="C104" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" t="s">
-        <v>215</v>
+      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23955" windowHeight="12300"/>
+    <workbookView windowWidth="23955" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -467,6 +467,21 @@
   </si>
   <si>
     <t>Exit Game</t>
+  </si>
+  <si>
+    <t>重生</t>
+  </si>
+  <si>
+    <t>Rebirth</t>
+  </si>
+  <si>
+    <t>游戏死亡界面</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>You Are Dead</t>
   </si>
   <si>
     <t>未知</t>
@@ -1701,10 +1716,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="$A71:$XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2680,9 +2695,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" ht="12" customHeight="1" spans="1:4">
       <c r="A70">
-        <v>1000</v>
+        <v>911</v>
       </c>
       <c r="B70" t="s">
         <v>151</v>
@@ -2694,9 +2709,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" ht="12" customHeight="1" spans="1:4">
       <c r="A71">
-        <v>1001</v>
+        <v>912</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
@@ -2708,219 +2723,219 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" customHeight="1" spans="1:4">
       <c r="A72">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" t="s">
         <v>158</v>
-      </c>
-      <c r="C79" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1101</v>
+        <v>1032</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>2001</v>
+        <v>1033</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>2002</v>
+        <v>1101</v>
       </c>
       <c r="B87" t="s">
         <v>173</v>
@@ -2929,12 +2944,12 @@
         <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B88" t="s">
         <v>175</v>
@@ -2943,208 +2958,208 @@
         <v>176</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
         <v>177</v>
-      </c>
-      <c r="C89" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D94" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D97" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D99" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D100" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>10001</v>
+        <v>2015</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>10002</v>
+        <v>2016</v>
       </c>
       <c r="B103" t="s">
         <v>206</v>
@@ -3153,40 +3168,40 @@
         <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" t="s">
         <v>209</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>210</v>
-      </c>
-      <c r="D104" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s">
         <v>212</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>213</v>
-      </c>
-      <c r="D105" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="B106" t="s">
         <v>214</v>
@@ -3200,7 +3215,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>10012</v>
+        <v>10004</v>
       </c>
       <c r="B107" t="s">
         <v>217</v>
@@ -3209,68 +3224,68 @@
         <v>218</v>
       </c>
       <c r="D107" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
         <v>220</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>221</v>
-      </c>
-      <c r="D108" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>10014</v>
+        <v>10012</v>
       </c>
       <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" t="s">
         <v>223</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>224</v>
-      </c>
-      <c r="D109" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>20001</v>
+        <v>10013</v>
       </c>
       <c r="B110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" t="s">
         <v>226</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>227</v>
-      </c>
-      <c r="D110" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>20002</v>
+        <v>10014</v>
       </c>
       <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" t="s">
         <v>229</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>230</v>
-      </c>
-      <c r="D111" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="B112" t="s">
         <v>231</v>
@@ -3279,40 +3294,40 @@
         <v>232</v>
       </c>
       <c r="D112" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B113" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" t="s">
         <v>233</v>
-      </c>
-      <c r="C113" t="s">
-        <v>234</v>
-      </c>
-      <c r="D113" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>30001</v>
+        <v>20003</v>
       </c>
       <c r="B114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>30002</v>
+        <v>20004</v>
       </c>
       <c r="B115" t="s">
         <v>238</v>
@@ -3321,7 +3336,35 @@
         <v>239</v>
       </c>
       <c r="D115" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>30001</v>
+      </c>
+      <c r="B116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" t="s">
+        <v>241</v>
+      </c>
+      <c r="D116" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>30002</v>
+      </c>
+      <c r="B117" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23955" windowHeight="11700"/>
+    <workbookView windowWidth="8415" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="251">
   <si>
     <t>id</t>
   </si>
@@ -638,6 +638,24 @@
   </si>
   <si>
     <t>Magic Damage</t>
+  </si>
+  <si>
+    <t>装备耐久</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>开采速度</t>
+  </si>
+  <si>
+    <t>Break Speed</t>
+  </si>
+  <si>
+    <t>开采等级</t>
+  </si>
+  <si>
+    <t>Break Level</t>
   </si>
   <si>
     <t>已开启</t>
@@ -1716,10 +1734,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="$A71:$XFD71"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3173,7 +3191,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>10001</v>
+        <v>2017</v>
       </c>
       <c r="B104" t="s">
         <v>208</v>
@@ -3182,130 +3200,130 @@
         <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>10002</v>
+        <v>2018</v>
       </c>
       <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
         <v>211</v>
       </c>
-      <c r="C105" t="s">
-        <v>212</v>
-      </c>
       <c r="D105" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>10003</v>
+        <v>2019</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>10011</v>
+        <v>10002</v>
       </c>
       <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" t="s">
         <v>219</v>
-      </c>
-      <c r="C108" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>10012</v>
+        <v>10003</v>
       </c>
       <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109" t="s">
         <v>222</v>
-      </c>
-      <c r="C109" t="s">
-        <v>223</v>
-      </c>
-      <c r="D109" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>10013</v>
+        <v>10004</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D110" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>10014</v>
+        <v>10011</v>
       </c>
       <c r="B111" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D111" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>20001</v>
+        <v>10012</v>
       </c>
       <c r="B112" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C112" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D112" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>20002</v>
+        <v>10013</v>
       </c>
       <c r="B113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D113" t="s">
         <v>233</v>
@@ -3313,35 +3331,35 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>20003</v>
+        <v>10014</v>
       </c>
       <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" t="s">
         <v>236</v>
-      </c>
-      <c r="C114" t="s">
-        <v>237</v>
-      </c>
-      <c r="D114" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>20004</v>
+        <v>20001</v>
       </c>
       <c r="B115" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" t="s">
         <v>238</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>239</v>
-      </c>
-      <c r="D115" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B116" t="s">
         <v>240</v>
@@ -3350,21 +3368,63 @@
         <v>241</v>
       </c>
       <c r="D116" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
+        <v>20003</v>
+      </c>
+      <c r="B117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>20004</v>
+      </c>
+      <c r="B118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>30001</v>
+      </c>
+      <c r="B119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s">
+        <v>247</v>
+      </c>
+      <c r="D119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
         <v>30002</v>
       </c>
-      <c r="B117" t="s">
-        <v>243</v>
-      </c>
-      <c r="C117" t="s">
-        <v>244</v>
-      </c>
-      <c r="D117" t="s">
-        <v>242</v>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>250</v>
+      </c>
+      <c r="D120" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8415" windowHeight="6795"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -457,16 +457,16 @@
     <t>退出游戏界面</t>
   </si>
   <si>
-    <t>返回主菜单</t>
-  </si>
-  <si>
-    <t>Back Main Menu</t>
-  </si>
-  <si>
-    <t>退出游戏</t>
-  </si>
-  <si>
-    <t>Exit Game</t>
+    <t>保存返回主菜单</t>
+  </si>
+  <si>
+    <t>Save And Back Main Menu</t>
+  </si>
+  <si>
+    <t>保存退出游戏</t>
+  </si>
+  <si>
+    <t>Save And Exit Game</t>
   </si>
   <si>
     <t>重生</t>
@@ -1736,8 +1736,8 @@
   <sheetPr/>
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -742,16 +742,16 @@
     <t>Do you start the game as this character?</t>
   </si>
   <si>
-    <t>是否返回主菜单？</t>
-  </si>
-  <si>
-    <t>Do you want to return to the main menu?</t>
-  </si>
-  <si>
-    <t>是否退出游戏？</t>
-  </si>
-  <si>
-    <t>Do you want to exit the game?</t>
+    <t>是否保存并返回主菜单？</t>
+  </si>
+  <si>
+    <t>Do you want to save and return to the main menu?</t>
+  </si>
+  <si>
+    <t>是否保存并退出游戏？</t>
+  </si>
+  <si>
+    <t>Do you want to save and exit the game?</t>
   </si>
   <si>
     <t>还没有输入名字</t>
@@ -1736,8 +1736,8 @@
   <sheetPr/>
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="19785" windowHeight="18690"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="254">
   <si>
     <t>id</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Exit</t>
+  </si>
+  <si>
+    <t>空空如也</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>通用 没有内容</t>
   </si>
   <si>
     <t>设计</t>
@@ -1734,10 +1743,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1847,7 +1856,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1861,7 +1870,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1870,68 +1879,68 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1940,236 +1949,236 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
@@ -2183,7 +2192,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -2192,166 +2201,166 @@
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
         <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
         <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
         <v>96</v>
@@ -2360,26 +2369,26 @@
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
         <v>98</v>
-      </c>
-      <c r="C45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
@@ -2393,7 +2402,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
         <v>104</v>
@@ -2407,7 +2416,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
         <v>107</v>
@@ -2421,7 +2430,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
@@ -2430,96 +2439,96 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
         <v>112</v>
-      </c>
-      <c r="C50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
         <v>301</v>
-      </c>
-      <c r="B55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" ht="12" customHeight="1" spans="1:4">
-      <c r="A56">
-        <v>302</v>
       </c>
       <c r="B56" t="s">
         <v>125</v>
@@ -2528,18 +2537,18 @@
         <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" ht="12" customHeight="1" spans="1:4">
       <c r="A57">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
         <v>127</v>
@@ -2547,7 +2556,7 @@
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:4">
       <c r="A58">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="B58" t="s">
         <v>128</v>
@@ -2561,175 +2570,175 @@
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
       <c r="A59">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" ht="12" customHeight="1" spans="1:4">
       <c r="A60">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:4">
       <c r="A61">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
         <v>133</v>
-      </c>
-      <c r="C61" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="62" ht="12" customHeight="1" spans="1:4">
       <c r="A62">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:4">
       <c r="A63">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" ht="12" customHeight="1" spans="1:4">
       <c r="A64">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" ht="12" customHeight="1" spans="1:4">
       <c r="A65">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" ht="12" customHeight="1" spans="1:4">
       <c r="A66">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" ht="12" customHeight="1" spans="1:4">
       <c r="A67">
-        <v>901</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" ht="12" customHeight="1" spans="1:4">
       <c r="A68">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" ht="12" customHeight="1" spans="1:4">
       <c r="A69">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" t="s">
         <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="70" ht="12" customHeight="1" spans="1:4">
       <c r="A70">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" ht="12" customHeight="1" spans="1:4">
       <c r="A71">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
@@ -2738,26 +2747,26 @@
         <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" ht="12" customHeight="1" spans="1:4">
       <c r="A72">
+        <v>912</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:4">
+      <c r="A73">
         <v>1000</v>
-      </c>
-      <c r="B72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>1001</v>
       </c>
       <c r="B73" t="s">
         <v>159</v>
@@ -2766,222 +2775,222 @@
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
         <v>161</v>
-      </c>
-      <c r="C75" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1101</v>
+        <v>1033</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>2001</v>
+        <v>1101</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B89" t="s">
         <v>178</v>
@@ -2990,264 +2999,264 @@
         <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" t="s">
         <v>180</v>
-      </c>
-      <c r="C90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D91" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D92" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D93" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D95" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D98" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D102" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D103" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D104" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>10001</v>
+        <v>2019</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B108" t="s">
         <v>217</v>
@@ -3261,7 +3270,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B109" t="s">
         <v>220</v>
@@ -3275,7 +3284,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B110" t="s">
         <v>223</v>
@@ -3284,26 +3293,26 @@
         <v>224</v>
       </c>
       <c r="D110" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D111" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B112" t="s">
         <v>228</v>
@@ -3317,7 +3326,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B113" t="s">
         <v>231</v>
@@ -3331,7 +3340,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B114" t="s">
         <v>234</v>
@@ -3345,7 +3354,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B115" t="s">
         <v>237</v>
@@ -3359,7 +3368,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B116" t="s">
         <v>240</v>
@@ -3368,54 +3377,54 @@
         <v>241</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B117" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" t="s">
         <v>242</v>
-      </c>
-      <c r="C117" t="s">
-        <v>243</v>
-      </c>
-      <c r="D117" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D118" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="B119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B120" t="s">
         <v>249</v>
@@ -3424,7 +3433,21 @@
         <v>250</v>
       </c>
       <c r="D120" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>30002</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" t="s">
+        <v>253</v>
+      </c>
+      <c r="D121" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="18690"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="256">
   <si>
     <t>id</t>
   </si>
@@ -776,6 +776,12 @@
   </si>
   <si>
     <t>Not enough material to synthesis</t>
+  </si>
+  <si>
+    <t>没有足够的道具</t>
+  </si>
+  <si>
+    <t>Don't have enough items</t>
   </si>
 </sst>
 </file>
@@ -1743,10 +1749,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3450,6 +3456,20 @@
         <v>251</v>
       </c>
     </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>30003</v>
+      </c>
+      <c r="B122" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="12285" windowHeight="13815"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="258">
   <si>
     <t>id</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>Synthesis</t>
+  </si>
+  <si>
+    <t>魔力消耗</t>
+  </si>
+  <si>
+    <t>Magic Expend</t>
   </si>
   <si>
     <t>合成界面</t>
@@ -1749,10 +1755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2562,63 +2568,63 @@
     </row>
     <row r="58" ht="12" customHeight="1" spans="1:4">
       <c r="A58">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
       <c r="A59">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
         <v>132</v>
-      </c>
-      <c r="D59" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="60" ht="12" customHeight="1" spans="1:4">
       <c r="A60">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:4">
       <c r="A61">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
         <v>135</v>
-      </c>
-      <c r="D61" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="62" ht="12" customHeight="1" spans="1:4">
       <c r="A62">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s">
         <v>136</v>
@@ -2627,12 +2633,12 @@
         <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:4">
       <c r="A63">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s">
         <v>138</v>
@@ -2641,12 +2647,12 @@
         <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" ht="12" customHeight="1" spans="1:4">
       <c r="A64">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s">
         <v>140</v>
@@ -2655,12 +2661,12 @@
         <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" ht="12" customHeight="1" spans="1:4">
       <c r="A65">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B65" t="s">
         <v>142</v>
@@ -2669,12 +2675,12 @@
         <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" ht="12" customHeight="1" spans="1:4">
       <c r="A66">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s">
         <v>144</v>
@@ -2683,12 +2689,12 @@
         <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" ht="12" customHeight="1" spans="1:4">
       <c r="A67">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s">
         <v>146</v>
@@ -2697,40 +2703,40 @@
         <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" ht="12" customHeight="1" spans="1:4">
       <c r="A68">
-        <v>901</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s">
         <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" ht="12" customHeight="1" spans="1:4">
       <c r="A69">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B69" t="s">
         <v>150</v>
       </c>
       <c r="C69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" t="s">
         <v>151</v>
-      </c>
-      <c r="D69" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="70" ht="12" customHeight="1" spans="1:4">
       <c r="A70">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B70" t="s">
         <v>152</v>
@@ -2739,12 +2745,12 @@
         <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" ht="12" customHeight="1" spans="1:4">
       <c r="A71">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
@@ -2753,26 +2759,26 @@
         <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" ht="12" customHeight="1" spans="1:4">
       <c r="A72">
+        <v>911</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" ht="12" customHeight="1" spans="1:4">
+      <c r="A73">
         <v>912</v>
-      </c>
-      <c r="B72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:4">
-      <c r="A73">
-        <v>1000</v>
       </c>
       <c r="B73" t="s">
         <v>159</v>
@@ -2781,96 +2787,96 @@
         <v>160</v>
       </c>
       <c r="D73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:4">
+      <c r="A74">
+        <v>1000</v>
+      </c>
+      <c r="B74" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>1001</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>162</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>163</v>
-      </c>
-      <c r="D74" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B80" t="s">
         <v>136</v>
@@ -2879,12 +2885,12 @@
         <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B81" t="s">
         <v>138</v>
@@ -2893,54 +2899,54 @@
         <v>139</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B85" t="s">
         <v>170</v>
@@ -2949,12 +2955,12 @@
         <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B86" t="s">
         <v>172</v>
@@ -2963,12 +2969,12 @@
         <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B87" t="s">
         <v>174</v>
@@ -2977,12 +2983,12 @@
         <v>175</v>
       </c>
       <c r="D87" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>1101</v>
+        <v>1033</v>
       </c>
       <c r="B88" t="s">
         <v>176</v>
@@ -2991,12 +2997,12 @@
         <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>2001</v>
+        <v>1101</v>
       </c>
       <c r="B89" t="s">
         <v>178</v>
@@ -3005,26 +3011,26 @@
         <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
         <v>181</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>182</v>
-      </c>
-      <c r="D90" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B91" t="s">
         <v>183</v>
@@ -3033,12 +3039,12 @@
         <v>184</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B92" t="s">
         <v>185</v>
@@ -3047,12 +3053,12 @@
         <v>186</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B93" t="s">
         <v>187</v>
@@ -3061,12 +3067,12 @@
         <v>188</v>
       </c>
       <c r="D93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B94" t="s">
         <v>189</v>
@@ -3075,12 +3081,12 @@
         <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B95" t="s">
         <v>191</v>
@@ -3089,12 +3095,12 @@
         <v>192</v>
       </c>
       <c r="D95" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B96" t="s">
         <v>193</v>
@@ -3103,12 +3109,12 @@
         <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B97" t="s">
         <v>195</v>
@@ -3117,12 +3123,12 @@
         <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B98" t="s">
         <v>197</v>
@@ -3131,12 +3137,12 @@
         <v>198</v>
       </c>
       <c r="D98" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B99" t="s">
         <v>199</v>
@@ -3145,12 +3151,12 @@
         <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B100" t="s">
         <v>201</v>
@@ -3159,12 +3165,12 @@
         <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B101" t="s">
         <v>203</v>
@@ -3173,12 +3179,12 @@
         <v>204</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B102" t="s">
         <v>205</v>
@@ -3187,12 +3193,12 @@
         <v>206</v>
       </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B103" t="s">
         <v>207</v>
@@ -3201,12 +3207,12 @@
         <v>208</v>
       </c>
       <c r="D103" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B104" t="s">
         <v>209</v>
@@ -3215,12 +3221,12 @@
         <v>210</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B105" t="s">
         <v>211</v>
@@ -3229,12 +3235,12 @@
         <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B106" t="s">
         <v>213</v>
@@ -3243,12 +3249,12 @@
         <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B107" t="s">
         <v>215</v>
@@ -3257,12 +3263,12 @@
         <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>10001</v>
+        <v>2019</v>
       </c>
       <c r="B108" t="s">
         <v>217</v>
@@ -3271,54 +3277,54 @@
         <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
         <v>220</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>221</v>
-      </c>
-      <c r="D109" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
         <v>223</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>224</v>
-      </c>
-      <c r="D110" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
         <v>226</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>227</v>
-      </c>
-      <c r="D111" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B112" t="s">
         <v>228</v>
@@ -3327,82 +3333,82 @@
         <v>229</v>
       </c>
       <c r="D112" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B113" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" t="s">
         <v>231</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>232</v>
-      </c>
-      <c r="D113" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" t="s">
         <v>234</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>235</v>
-      </c>
-      <c r="D114" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" t="s">
         <v>237</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>238</v>
-      </c>
-      <c r="D115" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
         <v>240</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>241</v>
-      </c>
-      <c r="D116" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B117" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" t="s">
         <v>243</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>244</v>
-      </c>
-      <c r="D117" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B118" t="s">
         <v>245</v>
@@ -3411,12 +3417,12 @@
         <v>246</v>
       </c>
       <c r="D118" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B119" t="s">
         <v>247</v>
@@ -3425,12 +3431,12 @@
         <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="B120" t="s">
         <v>249</v>
@@ -3439,26 +3445,26 @@
         <v>250</v>
       </c>
       <c r="D120" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B121" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" t="s">
         <v>252</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>253</v>
-      </c>
-      <c r="D121" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B122" t="s">
         <v>254</v>
@@ -3467,7 +3473,21 @@
         <v>255</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>30003</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12285" windowHeight="13815"/>
+    <workbookView windowWidth="20385" windowHeight="17325"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="262">
   <si>
     <t>id</t>
   </si>
@@ -788,6 +788,18 @@
   </si>
   <si>
     <t>Don't have enough items</t>
+  </si>
+  <si>
+    <t>魔力不足，无法合成</t>
+  </si>
+  <si>
+    <t>Don't have enough magic</t>
+  </si>
+  <si>
+    <t>目标方块不存在，无法合成</t>
+  </si>
+  <si>
+    <t>Target block miss</t>
   </si>
 </sst>
 </file>
@@ -1755,10 +1767,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3490,6 +3502,34 @@
         <v>253</v>
       </c>
     </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>30004</v>
+      </c>
+      <c r="B124" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>30005</v>
+      </c>
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="17325"/>
+    <workbookView windowWidth="20625" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -673,6 +673,12 @@
     <t>Break Level</t>
   </si>
   <si>
+    <t>揭示之眼</t>
+  </si>
+  <si>
+    <t>Eye of Revealing</t>
+  </si>
+  <si>
     <t>已开启</t>
   </si>
   <si>
@@ -784,10 +790,10 @@
     <t>Not enough material to synthesis</t>
   </si>
   <si>
-    <t>没有足够的道具</t>
-  </si>
-  <si>
-    <t>Don't have enough items</t>
+    <t>背包里没有足够的道具</t>
+  </si>
+  <si>
+    <t>Don't have enough items in the backpack</t>
   </si>
   <si>
     <t>魔力不足，无法合成</t>
@@ -1767,10 +1773,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3294,7 +3300,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>10001</v>
+        <v>2020</v>
       </c>
       <c r="B109" t="s">
         <v>219</v>
@@ -3303,54 +3309,54 @@
         <v>220</v>
       </c>
       <c r="D109" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="s">
         <v>222</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>223</v>
-      </c>
-      <c r="D110" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="s">
         <v>225</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>226</v>
-      </c>
-      <c r="D111" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
         <v>228</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>229</v>
-      </c>
-      <c r="D112" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B113" t="s">
         <v>230</v>
@@ -3359,82 +3365,82 @@
         <v>231</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B114" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" t="s">
         <v>233</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>234</v>
-      </c>
-      <c r="D114" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" t="s">
         <v>236</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>237</v>
-      </c>
-      <c r="D115" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B116" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" t="s">
         <v>239</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>240</v>
-      </c>
-      <c r="D116" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" t="s">
         <v>242</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>243</v>
-      </c>
-      <c r="D117" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" t="s">
         <v>245</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>246</v>
-      </c>
-      <c r="D118" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B119" t="s">
         <v>247</v>
@@ -3443,12 +3449,12 @@
         <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B120" t="s">
         <v>249</v>
@@ -3457,12 +3463,12 @@
         <v>250</v>
       </c>
       <c r="D120" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="B121" t="s">
         <v>251</v>
@@ -3471,26 +3477,26 @@
         <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" t="s">
         <v>254</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>255</v>
-      </c>
-      <c r="D122" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B123" t="s">
         <v>256</v>
@@ -3499,12 +3505,12 @@
         <v>257</v>
       </c>
       <c r="D123" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B124" t="s">
         <v>258</v>
@@ -3513,12 +3519,12 @@
         <v>259</v>
       </c>
       <c r="D124" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="B125" t="s">
         <v>260</v>
@@ -3527,7 +3533,21 @@
         <v>261</v>
       </c>
       <c r="D125" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>30005</v>
+      </c>
+      <c r="B126" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20625" windowHeight="17070"/>
+    <workbookView windowWidth="21345" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>id</t>
   </si>
@@ -548,6 +548,24 @@
   </si>
   <si>
     <t>Bow</t>
+  </si>
+  <si>
+    <t>法杖</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>法杖杖端</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>法杖杖柄</t>
+  </si>
+  <si>
+    <t>Rod</t>
   </si>
   <si>
     <t>生物</t>
@@ -1773,10 +1791,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3020,7 +3038,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>1101</v>
+        <v>1041</v>
       </c>
       <c r="B89" t="s">
         <v>178</v>
@@ -3034,7 +3052,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>2001</v>
+        <v>1042</v>
       </c>
       <c r="B90" t="s">
         <v>180</v>
@@ -3043,54 +3061,54 @@
         <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>2002</v>
+        <v>1043</v>
       </c>
       <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" t="s">
         <v>183</v>
       </c>
-      <c r="C91" t="s">
-        <v>184</v>
-      </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>2003</v>
+        <v>1101</v>
       </c>
       <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" t="s">
         <v>185</v>
       </c>
-      <c r="C92" t="s">
-        <v>186</v>
-      </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
         <v>187</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>188</v>
-      </c>
-      <c r="D93" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B94" t="s">
         <v>189</v>
@@ -3099,12 +3117,12 @@
         <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B95" t="s">
         <v>191</v>
@@ -3113,12 +3131,12 @@
         <v>192</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B96" t="s">
         <v>193</v>
@@ -3127,12 +3145,12 @@
         <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B97" t="s">
         <v>195</v>
@@ -3141,12 +3159,12 @@
         <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B98" t="s">
         <v>197</v>
@@ -3155,12 +3173,12 @@
         <v>198</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B99" t="s">
         <v>199</v>
@@ -3169,12 +3187,12 @@
         <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B100" t="s">
         <v>201</v>
@@ -3183,12 +3201,12 @@
         <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B101" t="s">
         <v>203</v>
@@ -3197,12 +3215,12 @@
         <v>204</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B102" t="s">
         <v>205</v>
@@ -3211,12 +3229,12 @@
         <v>206</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B103" t="s">
         <v>207</v>
@@ -3225,12 +3243,12 @@
         <v>208</v>
       </c>
       <c r="D103" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B104" t="s">
         <v>209</v>
@@ -3239,12 +3257,12 @@
         <v>210</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B105" t="s">
         <v>211</v>
@@ -3253,12 +3271,12 @@
         <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B106" t="s">
         <v>213</v>
@@ -3267,12 +3285,12 @@
         <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B107" t="s">
         <v>215</v>
@@ -3281,12 +3299,12 @@
         <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B108" t="s">
         <v>217</v>
@@ -3295,12 +3313,12 @@
         <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B109" t="s">
         <v>219</v>
@@ -3309,12 +3327,12 @@
         <v>220</v>
       </c>
       <c r="D109" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>10001</v>
+        <v>2018</v>
       </c>
       <c r="B110" t="s">
         <v>221</v>
@@ -3323,130 +3341,130 @@
         <v>222</v>
       </c>
       <c r="D110" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>10002</v>
+        <v>2019</v>
       </c>
       <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="s">
         <v>224</v>
       </c>
-      <c r="C111" t="s">
-        <v>225</v>
-      </c>
       <c r="D111" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>10003</v>
+        <v>2020</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D112" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D113" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>10011</v>
+        <v>10002</v>
       </c>
       <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
+        <v>231</v>
+      </c>
+      <c r="D114" t="s">
         <v>232</v>
-      </c>
-      <c r="C114" t="s">
-        <v>233</v>
-      </c>
-      <c r="D114" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>10012</v>
+        <v>10003</v>
       </c>
       <c r="B115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" t="s">
         <v>235</v>
-      </c>
-      <c r="C115" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>10013</v>
+        <v>10004</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D116" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>10014</v>
+        <v>10011</v>
       </c>
       <c r="B117" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D117" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>20001</v>
+        <v>10012</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>20002</v>
+        <v>10013</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C119" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D119" t="s">
         <v>246</v>
@@ -3454,35 +3472,35 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>20003</v>
+        <v>10014</v>
       </c>
       <c r="B120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" t="s">
+        <v>248</v>
+      </c>
+      <c r="D120" t="s">
         <v>249</v>
-      </c>
-      <c r="C120" t="s">
-        <v>250</v>
-      </c>
-      <c r="D120" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>20004</v>
+        <v>20001</v>
       </c>
       <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
         <v>251</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>252</v>
-      </c>
-      <c r="D121" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B122" t="s">
         <v>253</v>
@@ -3491,54 +3509,54 @@
         <v>254</v>
       </c>
       <c r="D122" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>30002</v>
+        <v>20003</v>
       </c>
       <c r="B123" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123" t="s">
         <v>256</v>
       </c>
-      <c r="C123" t="s">
-        <v>257</v>
-      </c>
       <c r="D123" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>30003</v>
+        <v>20004</v>
       </c>
       <c r="B124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" t="s">
         <v>258</v>
       </c>
-      <c r="C124" t="s">
-        <v>259</v>
-      </c>
       <c r="D124" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>30004</v>
+        <v>30001</v>
       </c>
       <c r="B125" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" t="s">
         <v>260</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>261</v>
-      </c>
-      <c r="D125" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>30005</v>
+        <v>30002</v>
       </c>
       <c r="B126" t="s">
         <v>262</v>
@@ -3547,7 +3565,49 @@
         <v>263</v>
       </c>
       <c r="D126" t="s">
-        <v>255</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>30003</v>
+      </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>30004</v>
+      </c>
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>30005</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21345" windowHeight="11970"/>
+    <workbookView windowWidth="23325" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="287">
   <si>
     <t>id</t>
   </si>
@@ -464,6 +464,57 @@
   </si>
   <si>
     <t>Trousers</t>
+  </si>
+  <si>
+    <t>开始镶嵌</t>
+  </si>
+  <si>
+    <t>核心镶嵌界面</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>生成</t>
+  </si>
+  <si>
+    <t>射程</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>威力</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
   <si>
     <t>继续游戏</t>
@@ -1791,10 +1842,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2758,13 +2809,13 @@
     </row>
     <row r="69" ht="12" customHeight="1" spans="1:4">
       <c r="A69">
-        <v>901</v>
+        <v>500</v>
       </c>
       <c r="B69" t="s">
         <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>151</v>
@@ -2772,7 +2823,7 @@
     </row>
     <row r="70" ht="12" customHeight="1" spans="1:4">
       <c r="A70">
-        <v>902</v>
+        <v>501</v>
       </c>
       <c r="B70" t="s">
         <v>152</v>
@@ -2786,7 +2837,7 @@
     </row>
     <row r="71" ht="12" customHeight="1" spans="1:4">
       <c r="A71">
-        <v>903</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
@@ -2800,7 +2851,7 @@
     </row>
     <row r="72" ht="12" customHeight="1" spans="1:4">
       <c r="A72">
-        <v>911</v>
+        <v>503</v>
       </c>
       <c r="B72" t="s">
         <v>156</v>
@@ -2809,732 +2860,732 @@
         <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" ht="12" customHeight="1" spans="1:4">
       <c r="A73">
+        <v>504</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" ht="12" customHeight="1" spans="1:4">
+      <c r="A74">
+        <v>505</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" ht="12" customHeight="1" spans="1:4">
+      <c r="A75">
+        <v>506</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" ht="12" customHeight="1" spans="1:4">
+      <c r="A76">
+        <v>507</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" ht="12" customHeight="1" spans="1:4">
+      <c r="A77">
+        <v>508</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" ht="12" customHeight="1" spans="1:4">
+      <c r="A78">
+        <v>901</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" ht="12" customHeight="1" spans="1:4">
+      <c r="A79">
+        <v>902</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" ht="12" customHeight="1" spans="1:4">
+      <c r="A80">
+        <v>903</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" ht="12" customHeight="1" spans="1:4">
+      <c r="A81">
+        <v>911</v>
+      </c>
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" ht="12" customHeight="1" spans="1:4">
+      <c r="A82">
         <v>912</v>
       </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:4">
-      <c r="A74">
+      <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:4">
+      <c r="A83">
         <v>1000</v>
       </c>
-      <c r="B74" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>1001</v>
-      </c>
-      <c r="B75" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>1002</v>
-      </c>
-      <c r="B76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>1003</v>
-      </c>
-      <c r="B77" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>1011</v>
-      </c>
-      <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>1012</v>
-      </c>
-      <c r="B79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>1013</v>
-      </c>
-      <c r="B80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" t="s">
-        <v>137</v>
-      </c>
-      <c r="D80" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>1014</v>
-      </c>
-      <c r="B81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>1015</v>
-      </c>
-      <c r="B82" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>1016</v>
-      </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>1017</v>
+        <v>1001</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>1041</v>
+        <v>1013</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1042</v>
+        <v>1014</v>
       </c>
       <c r="B90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" t="s">
         <v>180</v>
-      </c>
-      <c r="C90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1043</v>
+        <v>1015</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="D91" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>1101</v>
+        <v>1016</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D92" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>2001</v>
+        <v>1017</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2002</v>
+        <v>1021</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>2003</v>
+        <v>1031</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>2004</v>
+        <v>1032</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>2005</v>
+        <v>1033</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>2006</v>
+        <v>1041</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>2007</v>
+        <v>1042</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2008</v>
+        <v>1043</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>2009</v>
+        <v>1101</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" t="s">
         <v>205</v>
-      </c>
-      <c r="C102" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" t="s">
         <v>207</v>
       </c>
-      <c r="C103" t="s">
-        <v>208</v>
-      </c>
       <c r="D103" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" t="s">
         <v>209</v>
       </c>
-      <c r="C104" t="s">
-        <v>210</v>
-      </c>
       <c r="D104" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
         <v>211</v>
       </c>
-      <c r="C105" t="s">
-        <v>212</v>
-      </c>
       <c r="D105" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" t="s">
         <v>213</v>
       </c>
-      <c r="C106" t="s">
-        <v>214</v>
-      </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" t="s">
         <v>215</v>
       </c>
-      <c r="C107" t="s">
-        <v>216</v>
-      </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" t="s">
         <v>217</v>
       </c>
-      <c r="C108" t="s">
-        <v>218</v>
-      </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" t="s">
         <v>219</v>
       </c>
-      <c r="C109" t="s">
-        <v>220</v>
-      </c>
       <c r="D109" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
         <v>221</v>
       </c>
-      <c r="C110" t="s">
-        <v>222</v>
-      </c>
       <c r="D110" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="B111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" t="s">
         <v>223</v>
       </c>
-      <c r="C111" t="s">
-        <v>224</v>
-      </c>
       <c r="D111" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="B112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" t="s">
         <v>225</v>
       </c>
-      <c r="C112" t="s">
-        <v>226</v>
-      </c>
       <c r="D112" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>10001</v>
+        <v>2012</v>
       </c>
       <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
         <v>227</v>
       </c>
-      <c r="C113" t="s">
-        <v>228</v>
-      </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>10002</v>
+        <v>2013</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>10003</v>
+        <v>2014</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D115" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>10004</v>
+        <v>2015</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>10011</v>
+        <v>2016</v>
       </c>
       <c r="B117" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>10012</v>
+        <v>2017</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D118" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>10013</v>
+        <v>2018</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D119" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>10014</v>
+        <v>2019</v>
       </c>
       <c r="B120" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D120" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>20001</v>
+        <v>2020</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D121" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>20002</v>
+        <v>10001</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C122" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D122" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>20003</v>
+        <v>10002</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>20004</v>
+        <v>10003</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D124" t="s">
         <v>252</v>
@@ -3542,72 +3593,198 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>30001</v>
+        <v>10004</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C125" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>30002</v>
+        <v>10011</v>
       </c>
       <c r="B126" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D126" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>30003</v>
+        <v>10012</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>30004</v>
+        <v>10013</v>
       </c>
       <c r="B128" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D128" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
+        <v>10014</v>
+      </c>
+      <c r="B129" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>20001</v>
+      </c>
+      <c r="B130" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130" t="s">
+        <v>268</v>
+      </c>
+      <c r="D130" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>20002</v>
+      </c>
+      <c r="B131" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" t="s">
+        <v>271</v>
+      </c>
+      <c r="D131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>20003</v>
+      </c>
+      <c r="B132" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" t="s">
+        <v>273</v>
+      </c>
+      <c r="D132" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>20004</v>
+      </c>
+      <c r="B133" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>30001</v>
+      </c>
+      <c r="B134" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" t="s">
+        <v>277</v>
+      </c>
+      <c r="D134" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>30002</v>
+      </c>
+      <c r="B135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" t="s">
+        <v>280</v>
+      </c>
+      <c r="D135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>30003</v>
+      </c>
+      <c r="B136" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" t="s">
+        <v>282</v>
+      </c>
+      <c r="D136" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>30004</v>
+      </c>
+      <c r="B137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
         <v>30005</v>
       </c>
-      <c r="B129" t="s">
-        <v>268</v>
-      </c>
-      <c r="C129" t="s">
-        <v>269</v>
-      </c>
-      <c r="D129" t="s">
-        <v>261</v>
+      <c r="B138" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" t="s">
+        <v>286</v>
+      </c>
+      <c r="D138" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="290">
   <si>
     <t>id</t>
   </si>
@@ -515,6 +515,15 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>核心镶嵌</t>
+  </si>
+  <si>
+    <t>Focal Manipulator</t>
+  </si>
+  <si>
+    <t>研究界面</t>
   </si>
   <si>
     <t>继续游戏</t>
@@ -1842,10 +1851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A78" sqref="$A78:$XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2935,63 +2944,63 @@
     </row>
     <row r="78" ht="12" customHeight="1" spans="1:4">
       <c r="A78">
-        <v>901</v>
+        <v>601</v>
       </c>
       <c r="B78" t="s">
         <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" ht="12" customHeight="1" spans="1:4">
       <c r="A79">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" ht="12" customHeight="1" spans="1:4">
       <c r="A80">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" t="s">
         <v>171</v>
-      </c>
-      <c r="C80" t="s">
-        <v>172</v>
-      </c>
-      <c r="D80" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="81" ht="12" customHeight="1" spans="1:4">
       <c r="A81">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" ht="12" customHeight="1" spans="1:4">
       <c r="A82">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B82" t="s">
         <v>176</v>
@@ -3000,26 +3009,26 @@
         <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" ht="12" customHeight="1" spans="1:4">
       <c r="A83">
+        <v>912</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:4">
+      <c r="A84">
         <v>1000</v>
-      </c>
-      <c r="B83" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83" t="s">
-        <v>179</v>
-      </c>
-      <c r="D83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>1001</v>
       </c>
       <c r="B84" t="s">
         <v>181</v>
@@ -3028,264 +3037,264 @@
         <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" t="s">
         <v>183</v>
-      </c>
-      <c r="C86" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D90" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="D94" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D96" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D98" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1101</v>
+        <v>1043</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>2001</v>
+        <v>1101</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B103" t="s">
         <v>206</v>
@@ -3294,278 +3303,278 @@
         <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" t="s">
         <v>208</v>
-      </c>
-      <c r="C104" t="s">
-        <v>209</v>
-      </c>
-      <c r="D104" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D109" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D110" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D111" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D112" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D113" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D114" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D115" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D116" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D120" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D121" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>10001</v>
+        <v>2020</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D122" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B123" t="s">
         <v>247</v>
@@ -3579,7 +3588,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B124" t="s">
         <v>250</v>
@@ -3593,7 +3602,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B125" t="s">
         <v>253</v>
@@ -3602,26 +3611,26 @@
         <v>254</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B127" t="s">
         <v>258</v>
@@ -3635,7 +3644,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B128" t="s">
         <v>261</v>
@@ -3649,7 +3658,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B129" t="s">
         <v>264</v>
@@ -3663,7 +3672,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B130" t="s">
         <v>267</v>
@@ -3677,7 +3686,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B131" t="s">
         <v>270</v>
@@ -3686,54 +3695,54 @@
         <v>271</v>
       </c>
       <c r="D131" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B132" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" t="s">
+        <v>274</v>
+      </c>
+      <c r="D132" t="s">
         <v>272</v>
-      </c>
-      <c r="C132" t="s">
-        <v>273</v>
-      </c>
-      <c r="D132" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D133" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C134" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D134" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B135" t="s">
         <v>279</v>
@@ -3742,49 +3751,63 @@
         <v>280</v>
       </c>
       <c r="D135" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" t="s">
         <v>281</v>
-      </c>
-      <c r="C136" t="s">
-        <v>282</v>
-      </c>
-      <c r="D136" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D137" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
+        <v>30004</v>
+      </c>
+      <c r="B138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" t="s">
+        <v>287</v>
+      </c>
+      <c r="D138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
         <v>30005</v>
       </c>
-      <c r="B138" t="s">
-        <v>285</v>
-      </c>
-      <c r="C138" t="s">
-        <v>286</v>
-      </c>
-      <c r="D138" t="s">
-        <v>278</v>
+      <c r="B139" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" t="s">
+        <v>289</v>
+      </c>
+      <c r="D139" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="11145"/>
+    <workbookView windowWidth="28530" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="300">
   <si>
     <t>id</t>
   </si>
@@ -526,6 +526,12 @@
     <t>研究界面</t>
   </si>
   <si>
+    <t>开始研究</t>
+  </si>
+  <si>
+    <t>Start Research</t>
+  </si>
+  <si>
     <t>继续游戏</t>
   </si>
   <si>
@@ -853,6 +859,12 @@
     <t>Do you want to save and exit the game?</t>
   </si>
   <si>
+    <t>是否开始研究&lt;color=red&gt;{0}&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Do you want to start research &lt;color=red&gt;{0}&lt;/color&gt;?</t>
+  </si>
+  <si>
     <t>还没有输入名字</t>
   </si>
   <si>
@@ -884,6 +896,24 @@
   </si>
   <si>
     <t>Target block miss</t>
+  </si>
+  <si>
+    <t>正在研究中...</t>
+  </si>
+  <si>
+    <t>Researching...</t>
+  </si>
+  <si>
+    <t>研究已完成</t>
+  </si>
+  <si>
+    <t>Research Completed</t>
+  </si>
+  <si>
+    <t>完成研究 &lt;color=green&gt;{0}&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Research Completed &lt;color=green&gt;{0}&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -1851,10 +1881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A78" sqref="$A78:$XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2958,35 +2988,35 @@
     </row>
     <row r="79" ht="12" customHeight="1" spans="1:4">
       <c r="A79">
-        <v>901</v>
+        <v>602</v>
       </c>
       <c r="B79" t="s">
         <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" ht="12" customHeight="1" spans="1:4">
       <c r="A80">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B80" t="s">
         <v>172</v>
       </c>
       <c r="C80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" t="s">
         <v>173</v>
-      </c>
-      <c r="D80" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="81" ht="12" customHeight="1" spans="1:4">
       <c r="A81">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B81" t="s">
         <v>174</v>
@@ -2995,12 +3025,12 @@
         <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" ht="12" customHeight="1" spans="1:4">
       <c r="A82">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B82" t="s">
         <v>176</v>
@@ -3009,26 +3039,26 @@
         <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" ht="12" customHeight="1" spans="1:4">
       <c r="A83">
+        <v>911</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" ht="12" customHeight="1" spans="1:4">
+      <c r="A84">
         <v>912</v>
-      </c>
-      <c r="B83" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:4">
-      <c r="A84">
-        <v>1000</v>
       </c>
       <c r="B84" t="s">
         <v>181</v>
@@ -3037,166 +3067,166 @@
         <v>182</v>
       </c>
       <c r="D84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:4">
+      <c r="A85">
+        <v>1000</v>
+      </c>
+      <c r="B85" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>1001</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>184</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>185</v>
-      </c>
-      <c r="D85" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="D90" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B96" t="s">
         <v>192</v>
@@ -3205,12 +3235,12 @@
         <v>193</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B97" t="s">
         <v>194</v>
@@ -3219,12 +3249,12 @@
         <v>195</v>
       </c>
       <c r="D97" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B98" t="s">
         <v>196</v>
@@ -3233,12 +3263,12 @@
         <v>197</v>
       </c>
       <c r="D98" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="B99" t="s">
         <v>198</v>
@@ -3247,12 +3277,12 @@
         <v>199</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B100" t="s">
         <v>200</v>
@@ -3261,12 +3291,12 @@
         <v>201</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B101" t="s">
         <v>202</v>
@@ -3275,12 +3305,12 @@
         <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>1101</v>
+        <v>1043</v>
       </c>
       <c r="B102" t="s">
         <v>204</v>
@@ -3289,12 +3319,12 @@
         <v>205</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2001</v>
+        <v>1101</v>
       </c>
       <c r="B103" t="s">
         <v>206</v>
@@ -3303,26 +3333,26 @@
         <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" t="s">
         <v>209</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>210</v>
-      </c>
-      <c r="D104" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B105" t="s">
         <v>211</v>
@@ -3331,12 +3361,12 @@
         <v>212</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B106" t="s">
         <v>213</v>
@@ -3345,12 +3375,12 @@
         <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B107" t="s">
         <v>215</v>
@@ -3359,12 +3389,12 @@
         <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B108" t="s">
         <v>217</v>
@@ -3373,12 +3403,12 @@
         <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B109" t="s">
         <v>219</v>
@@ -3387,12 +3417,12 @@
         <v>220</v>
       </c>
       <c r="D109" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B110" t="s">
         <v>221</v>
@@ -3401,12 +3431,12 @@
         <v>222</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B111" t="s">
         <v>223</v>
@@ -3415,12 +3445,12 @@
         <v>224</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B112" t="s">
         <v>225</v>
@@ -3429,12 +3459,12 @@
         <v>226</v>
       </c>
       <c r="D112" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B113" t="s">
         <v>227</v>
@@ -3443,12 +3473,12 @@
         <v>228</v>
       </c>
       <c r="D113" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B114" t="s">
         <v>229</v>
@@ -3457,12 +3487,12 @@
         <v>230</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B115" t="s">
         <v>231</v>
@@ -3471,12 +3501,12 @@
         <v>232</v>
       </c>
       <c r="D115" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B116" t="s">
         <v>233</v>
@@ -3485,12 +3515,12 @@
         <v>234</v>
       </c>
       <c r="D116" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B117" t="s">
         <v>235</v>
@@ -3499,12 +3529,12 @@
         <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B118" t="s">
         <v>237</v>
@@ -3513,12 +3543,12 @@
         <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B119" t="s">
         <v>239</v>
@@ -3527,12 +3557,12 @@
         <v>240</v>
       </c>
       <c r="D119" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B120" t="s">
         <v>241</v>
@@ -3541,12 +3571,12 @@
         <v>242</v>
       </c>
       <c r="D120" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B121" t="s">
         <v>243</v>
@@ -3555,12 +3585,12 @@
         <v>244</v>
       </c>
       <c r="D121" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B122" t="s">
         <v>245</v>
@@ -3569,12 +3599,12 @@
         <v>246</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>10001</v>
+        <v>2020</v>
       </c>
       <c r="B123" t="s">
         <v>247</v>
@@ -3583,54 +3613,54 @@
         <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B124" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" t="s">
         <v>250</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>251</v>
-      </c>
-      <c r="D124" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="s">
         <v>253</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>254</v>
-      </c>
-      <c r="D125" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s">
         <v>256</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>257</v>
-      </c>
-      <c r="D126" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B127" t="s">
         <v>258</v>
@@ -3639,82 +3669,82 @@
         <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B128" t="s">
+        <v>260</v>
+      </c>
+      <c r="C128" t="s">
         <v>261</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>262</v>
-      </c>
-      <c r="D128" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B129" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" t="s">
         <v>264</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>265</v>
-      </c>
-      <c r="D129" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" t="s">
         <v>267</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>268</v>
-      </c>
-      <c r="D130" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B131" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" t="s">
         <v>270</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>271</v>
-      </c>
-      <c r="D131" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B132" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" t="s">
         <v>273</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>274</v>
-      </c>
-      <c r="D132" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B133" t="s">
         <v>275</v>
@@ -3723,12 +3753,12 @@
         <v>276</v>
       </c>
       <c r="D133" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B134" t="s">
         <v>277</v>
@@ -3737,12 +3767,12 @@
         <v>278</v>
       </c>
       <c r="D134" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" ht="12" customHeight="1" spans="1:4">
       <c r="A135">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="B135" t="s">
         <v>279</v>
@@ -3751,40 +3781,40 @@
         <v>280</v>
       </c>
       <c r="D135" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" ht="12" customHeight="1" spans="1:4">
+      <c r="A136">
+        <v>20005</v>
+      </c>
+      <c r="B136" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136">
-        <v>30002</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>282</v>
       </c>
-      <c r="C136" t="s">
-        <v>283</v>
-      </c>
       <c r="D136" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>30003</v>
+        <v>30001</v>
       </c>
       <c r="B137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" t="s">
         <v>284</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>285</v>
-      </c>
-      <c r="D137" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>30004</v>
+        <v>30002</v>
       </c>
       <c r="B138" t="s">
         <v>286</v>
@@ -3793,12 +3823,12 @@
         <v>287</v>
       </c>
       <c r="D138" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>30005</v>
+        <v>30003</v>
       </c>
       <c r="B139" t="s">
         <v>288</v>
@@ -3807,7 +3837,77 @@
         <v>289</v>
       </c>
       <c r="D139" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>30004</v>
+      </c>
+      <c r="B140" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" t="s">
+        <v>291</v>
+      </c>
+      <c r="D140" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>30005</v>
+      </c>
+      <c r="B141" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" t="s">
+        <v>293</v>
+      </c>
+      <c r="D141" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>30006</v>
+      </c>
+      <c r="B142" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" t="s">
+        <v>295</v>
+      </c>
+      <c r="D142" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>30007</v>
+      </c>
+      <c r="B143" t="s">
+        <v>296</v>
+      </c>
+      <c r="C143" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>30008</v>
+      </c>
+      <c r="B144" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" t="s">
+        <v>299</v>
+      </c>
+      <c r="D144" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="11145"/>
+    <workbookView windowWidth="28770" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="305">
   <si>
     <t>id</t>
   </si>
@@ -763,6 +763,15 @@
     <t>Eye of Revealing</t>
   </si>
   <si>
+    <t>空置</t>
+  </si>
+  <si>
+    <t>Vacant</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
     <t>已开启</t>
   </si>
   <si>
@@ -914,6 +923,12 @@
   </si>
   <si>
     <t>Research Completed &lt;color=green&gt;{0}&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>没有放入法术核心，无法合成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not put in the magic core </t>
   </si>
 </sst>
 </file>
@@ -1881,10 +1896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3618,7 +3633,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>10001</v>
+        <v>9001</v>
       </c>
       <c r="B124" t="s">
         <v>249</v>
@@ -3632,7 +3647,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B125" t="s">
         <v>252</v>
@@ -3646,7 +3661,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B126" t="s">
         <v>255</v>
@@ -3660,7 +3675,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B127" t="s">
         <v>258</v>
@@ -3669,26 +3684,26 @@
         <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>10011</v>
+        <v>10004</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B129" t="s">
         <v>263</v>
@@ -3702,7 +3717,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B130" t="s">
         <v>266</v>
@@ -3716,7 +3731,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B131" t="s">
         <v>269</v>
@@ -3730,7 +3745,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>20001</v>
+        <v>10014</v>
       </c>
       <c r="B132" t="s">
         <v>272</v>
@@ -3744,7 +3759,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B133" t="s">
         <v>275</v>
@@ -3753,68 +3768,68 @@
         <v>276</v>
       </c>
       <c r="D133" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
+        <v>20002</v>
+      </c>
+      <c r="B134" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
         <v>20003</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" t="s">
+        <v>281</v>
+      </c>
+      <c r="D135" t="s">
         <v>277</v>
-      </c>
-      <c r="C134" t="s">
-        <v>278</v>
-      </c>
-      <c r="D134" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="135" ht="12" customHeight="1" spans="1:4">
-      <c r="A135">
-        <v>20004</v>
-      </c>
-      <c r="B135" t="s">
-        <v>279</v>
-      </c>
-      <c r="C135" t="s">
-        <v>280</v>
-      </c>
-      <c r="D135" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="136" ht="12" customHeight="1" spans="1:4">
       <c r="A136">
+        <v>20004</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" ht="12" customHeight="1" spans="1:4">
+      <c r="A137">
         <v>20005</v>
       </c>
-      <c r="B136" t="s">
-        <v>281</v>
-      </c>
-      <c r="C136" t="s">
-        <v>282</v>
-      </c>
-      <c r="D136" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137">
-        <v>30001</v>
-      </c>
       <c r="B137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D137" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B138" t="s">
         <v>286</v>
@@ -3823,91 +3838,119 @@
         <v>287</v>
       </c>
       <c r="D138" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B139" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" t="s">
+        <v>290</v>
+      </c>
+      <c r="D139" t="s">
         <v>288</v>
-      </c>
-      <c r="C139" t="s">
-        <v>289</v>
-      </c>
-      <c r="D139" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D140" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>30005</v>
+        <v>30004</v>
       </c>
       <c r="B141" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D141" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>30006</v>
+        <v>30005</v>
       </c>
       <c r="B142" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C142" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D142" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>30007</v>
+        <v>30006</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D143" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
+        <v>30007</v>
+      </c>
+      <c r="B144" t="s">
+        <v>299</v>
+      </c>
+      <c r="C144" t="s">
+        <v>300</v>
+      </c>
+      <c r="D144" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
         <v>30008</v>
       </c>
-      <c r="B144" t="s">
-        <v>298</v>
-      </c>
-      <c r="C144" t="s">
-        <v>299</v>
-      </c>
-      <c r="D144" t="s">
-        <v>285</v>
+      <c r="B145" t="s">
+        <v>301</v>
+      </c>
+      <c r="C145" t="s">
+        <v>302</v>
+      </c>
+      <c r="D145" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>30009</v>
+      </c>
+      <c r="B146" t="s">
+        <v>303</v>
+      </c>
+      <c r="C146" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="11730"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -517,6 +517,48 @@
     <t>Cost</t>
   </si>
   <si>
+    <t>开始制作</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>傀儡工坊</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>脚</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
     <t>核心镶嵌</t>
   </si>
   <si>
@@ -929,6 +971,12 @@
   </si>
   <si>
     <t xml:space="preserve">Not put in the magic core </t>
+  </si>
+  <si>
+    <t>工坊已经存在一个傀儡</t>
+  </si>
+  <si>
+    <t>The Press already has a golem</t>
   </si>
 </sst>
 </file>
@@ -1896,10 +1944,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2989,7 +3037,7 @@
     </row>
     <row r="78" ht="12" customHeight="1" spans="1:4">
       <c r="A78">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="B78" t="s">
         <v>167</v>
@@ -3003,13 +3051,13 @@
     </row>
     <row r="79" ht="12" customHeight="1" spans="1:4">
       <c r="A79">
-        <v>602</v>
+        <v>551</v>
       </c>
       <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
         <v>170</v>
-      </c>
-      <c r="C79" t="s">
-        <v>171</v>
       </c>
       <c r="D79" t="s">
         <v>169</v>
@@ -3017,119 +3065,119 @@
     </row>
     <row r="80" ht="12" customHeight="1" spans="1:4">
       <c r="A80">
-        <v>901</v>
+        <v>552</v>
       </c>
       <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s">
         <v>172</v>
       </c>
-      <c r="C80" t="s">
-        <v>116</v>
-      </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" ht="12" customHeight="1" spans="1:4">
       <c r="A81">
-        <v>902</v>
+        <v>553</v>
       </c>
       <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
         <v>174</v>
       </c>
-      <c r="C81" t="s">
-        <v>175</v>
-      </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" ht="12" customHeight="1" spans="1:4">
       <c r="A82">
-        <v>903</v>
+        <v>554</v>
       </c>
       <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" t="s">
         <v>176</v>
       </c>
-      <c r="C82" t="s">
-        <v>177</v>
-      </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" ht="12" customHeight="1" spans="1:4">
       <c r="A83">
-        <v>911</v>
+        <v>555</v>
       </c>
       <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
         <v>178</v>
       </c>
-      <c r="C83" t="s">
-        <v>179</v>
-      </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" ht="12" customHeight="1" spans="1:4">
       <c r="A84">
-        <v>912</v>
+        <v>556</v>
       </c>
       <c r="B84" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" ht="12" customHeight="1" spans="1:4">
+      <c r="A85">
+        <v>601</v>
+      </c>
+      <c r="B85" t="s">
         <v>181</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>182</v>
       </c>
-      <c r="D84" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:4">
-      <c r="A85">
-        <v>1000</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>183</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" ht="12" customHeight="1" spans="1:4">
+      <c r="A86">
+        <v>602</v>
+      </c>
+      <c r="B86" t="s">
         <v>184</v>
       </c>
-      <c r="D85" t="s">
+      <c r="C86" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>1001</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" ht="12" customHeight="1" spans="1:4">
+      <c r="A87">
+        <v>901</v>
+      </c>
+      <c r="B87" t="s">
         <v>186</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
         <v>187</v>
       </c>
-      <c r="D86" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>1002</v>
-      </c>
-      <c r="B87" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+    </row>
+    <row r="88" ht="12" customHeight="1" spans="1:4">
       <c r="A88">
-        <v>1003</v>
+        <v>902</v>
       </c>
       <c r="B88" t="s">
         <v>188</v>
@@ -3138,208 +3186,208 @@
         <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" ht="12" customHeight="1" spans="1:4">
       <c r="A89">
-        <v>1011</v>
+        <v>903</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" ht="12" customHeight="1" spans="1:4">
       <c r="A90">
-        <v>1012</v>
+        <v>911</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" ht="12" customHeight="1" spans="1:4">
       <c r="A91">
-        <v>1013</v>
+        <v>912</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:4">
       <c r="A92">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="D96" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" t="s">
         <v>199</v>
-      </c>
-      <c r="D99" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>1041</v>
+        <v>1015</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1042</v>
+        <v>1016</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D101" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>1043</v>
+        <v>1017</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>1101</v>
+        <v>1021</v>
       </c>
       <c r="B103" t="s">
         <v>206</v>
@@ -3348,12 +3396,12 @@
         <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>2001</v>
+        <v>1031</v>
       </c>
       <c r="B104" t="s">
         <v>208</v>
@@ -3362,110 +3410,110 @@
         <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2002</v>
+        <v>1032</v>
       </c>
       <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
         <v>211</v>
       </c>
-      <c r="C105" t="s">
-        <v>212</v>
-      </c>
       <c r="D105" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>2003</v>
+        <v>1033</v>
       </c>
       <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" t="s">
         <v>213</v>
       </c>
-      <c r="C106" t="s">
-        <v>214</v>
-      </c>
       <c r="D106" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>2004</v>
+        <v>1041</v>
       </c>
       <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" t="s">
         <v>215</v>
       </c>
-      <c r="C107" t="s">
-        <v>216</v>
-      </c>
       <c r="D107" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>2005</v>
+        <v>1042</v>
       </c>
       <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" t="s">
         <v>217</v>
       </c>
-      <c r="C108" t="s">
-        <v>218</v>
-      </c>
       <c r="D108" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>2006</v>
+        <v>1043</v>
       </c>
       <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" t="s">
         <v>219</v>
       </c>
-      <c r="C109" t="s">
-        <v>220</v>
-      </c>
       <c r="D109" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>2007</v>
+        <v>1101</v>
       </c>
       <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
         <v>221</v>
       </c>
-      <c r="C110" t="s">
-        <v>222</v>
-      </c>
       <c r="D110" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="B111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" t="s">
         <v>223</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>224</v>
-      </c>
-      <c r="D111" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="B112" t="s">
         <v>225</v>
@@ -3474,12 +3522,12 @@
         <v>226</v>
       </c>
       <c r="D112" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="B113" t="s">
         <v>227</v>
@@ -3488,12 +3536,12 @@
         <v>228</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="B114" t="s">
         <v>229</v>
@@ -3502,12 +3550,12 @@
         <v>230</v>
       </c>
       <c r="D114" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="B115" t="s">
         <v>231</v>
@@ -3516,12 +3564,12 @@
         <v>232</v>
       </c>
       <c r="D115" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B116" t="s">
         <v>233</v>
@@ -3530,12 +3578,12 @@
         <v>234</v>
       </c>
       <c r="D116" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B117" t="s">
         <v>235</v>
@@ -3544,12 +3592,12 @@
         <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="B118" t="s">
         <v>237</v>
@@ -3558,12 +3606,12 @@
         <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="B119" t="s">
         <v>239</v>
@@ -3572,12 +3620,12 @@
         <v>240</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="B120" t="s">
         <v>241</v>
@@ -3586,12 +3634,12 @@
         <v>242</v>
       </c>
       <c r="D120" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="B121" t="s">
         <v>243</v>
@@ -3600,12 +3648,12 @@
         <v>244</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="B122" t="s">
         <v>245</v>
@@ -3614,12 +3662,12 @@
         <v>246</v>
       </c>
       <c r="D122" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="B123" t="s">
         <v>247</v>
@@ -3628,12 +3676,12 @@
         <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>9001</v>
+        <v>2014</v>
       </c>
       <c r="B124" t="s">
         <v>249</v>
@@ -3642,214 +3690,214 @@
         <v>250</v>
       </c>
       <c r="D124" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>10001</v>
+        <v>2015</v>
       </c>
       <c r="B125" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" t="s">
         <v>252</v>
       </c>
-      <c r="C125" t="s">
-        <v>253</v>
-      </c>
       <c r="D125" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>10002</v>
+        <v>2016</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D126" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>10003</v>
+        <v>2017</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D127" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>10004</v>
+        <v>2018</v>
       </c>
       <c r="B128" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D128" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>10011</v>
+        <v>2019</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D129" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>10012</v>
+        <v>2020</v>
       </c>
       <c r="B130" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>10013</v>
+        <v>9001</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D131" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>10014</v>
+        <v>10001</v>
       </c>
       <c r="B132" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D132" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>20001</v>
+        <v>10002</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C133" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>20002</v>
+        <v>10003</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C134" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>20003</v>
+        <v>10004</v>
       </c>
       <c r="B135" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" t="s">
+        <v>276</v>
+      </c>
+      <c r="D135" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>10011</v>
+      </c>
+      <c r="B136" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" t="s">
+        <v>278</v>
+      </c>
+      <c r="D136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>10012</v>
+      </c>
+      <c r="B137" t="s">
         <v>280</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C137" t="s">
         <v>281</v>
       </c>
-      <c r="D135" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="136" ht="12" customHeight="1" spans="1:4">
-      <c r="A136">
-        <v>20004</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="D137" t="s">
         <v>282</v>
-      </c>
-      <c r="C136" t="s">
-        <v>283</v>
-      </c>
-      <c r="D136" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="137" ht="12" customHeight="1" spans="1:4">
-      <c r="A137">
-        <v>20005</v>
-      </c>
-      <c r="B137" t="s">
-        <v>284</v>
-      </c>
-      <c r="C137" t="s">
-        <v>285</v>
-      </c>
-      <c r="D137" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>30001</v>
+        <v>10013</v>
       </c>
       <c r="B138" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C138" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D138" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>30002</v>
+        <v>10014</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D139" t="s">
         <v>288</v>
@@ -3857,91 +3905,91 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>30003</v>
+        <v>20001</v>
       </c>
       <c r="B140" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" t="s">
+        <v>290</v>
+      </c>
+      <c r="D140" t="s">
         <v>291</v>
-      </c>
-      <c r="C140" t="s">
-        <v>292</v>
-      </c>
-      <c r="D140" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>30004</v>
+        <v>20002</v>
       </c>
       <c r="B141" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" t="s">
         <v>293</v>
       </c>
-      <c r="C141" t="s">
-        <v>294</v>
-      </c>
       <c r="D141" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>30005</v>
+        <v>20003</v>
       </c>
       <c r="B142" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" t="s">
         <v>295</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="143" ht="12" customHeight="1" spans="1:4">
+      <c r="A143">
+        <v>20004</v>
+      </c>
+      <c r="B143" t="s">
         <v>296</v>
       </c>
-      <c r="D142" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143">
-        <v>30006</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>297</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" ht="12" customHeight="1" spans="1:4">
+      <c r="A144">
+        <v>20005</v>
+      </c>
+      <c r="B144" t="s">
         <v>298</v>
       </c>
-      <c r="D143" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144">
-        <v>30007</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>299</v>
       </c>
-      <c r="C144" t="s">
-        <v>300</v>
-      </c>
       <c r="D144" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>30008</v>
+        <v>30001</v>
       </c>
       <c r="B145" t="s">
+        <v>300</v>
+      </c>
+      <c r="C145" t="s">
         <v>301</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>302</v>
-      </c>
-      <c r="D145" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>30009</v>
+        <v>30002</v>
       </c>
       <c r="B146" t="s">
         <v>303</v>
@@ -3950,7 +3998,119 @@
         <v>304</v>
       </c>
       <c r="D146" t="s">
-        <v>288</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>30003</v>
+      </c>
+      <c r="B147" t="s">
+        <v>305</v>
+      </c>
+      <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>30004</v>
+      </c>
+      <c r="B148" t="s">
+        <v>307</v>
+      </c>
+      <c r="C148" t="s">
+        <v>308</v>
+      </c>
+      <c r="D148" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>30005</v>
+      </c>
+      <c r="B149" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" t="s">
+        <v>310</v>
+      </c>
+      <c r="D149" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>30006</v>
+      </c>
+      <c r="B150" t="s">
+        <v>311</v>
+      </c>
+      <c r="C150" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>30007</v>
+      </c>
+      <c r="B151" t="s">
+        <v>313</v>
+      </c>
+      <c r="C151" t="s">
+        <v>314</v>
+      </c>
+      <c r="D151" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>30008</v>
+      </c>
+      <c r="B152" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>30009</v>
+      </c>
+      <c r="B153" t="s">
+        <v>317</v>
+      </c>
+      <c r="C153" t="s">
+        <v>318</v>
+      </c>
+      <c r="D153" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>30010</v>
+      </c>
+      <c r="B154" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="25740" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="325">
   <si>
     <t>id</t>
   </si>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>设置界面-摄像头视野</t>
+  </si>
+  <si>
+    <t>投射阴影距离</t>
+  </si>
+  <si>
+    <t>Cast Shadow Distance</t>
+  </si>
+  <si>
+    <t>实体显示距离</t>
+  </si>
+  <si>
+    <t>Entity Show Distance</t>
   </si>
   <si>
     <t>暂无数据</t>
@@ -982,7 +994,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -995,34 +1007,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,14 +1023,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1086,6 +1062,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1136,7 +1127,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,55 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,31 +1187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,6 +1223,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1277,7 +1247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,7 +1295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,6 +1331,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1342,21 +1354,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1389,6 +1386,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,148 +1459,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1599,52 +1611,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1944,10 +1956,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2631,7 +2643,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
@@ -2640,40 +2652,40 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
-        <v>114</v>
-      </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>116</v>
-      </c>
-      <c r="D51" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
         <v>117</v>
@@ -2682,12 +2694,12 @@
         <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
@@ -2696,12 +2708,12 @@
         <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
         <v>121</v>
@@ -2710,12 +2722,12 @@
         <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B55" t="s">
         <v>123</v>
@@ -2724,12 +2736,12 @@
         <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
         <v>125</v>
@@ -2738,110 +2750,110 @@
         <v>126</v>
       </c>
       <c r="D56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>207</v>
+      </c>
+      <c r="B57" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="57" ht="12" customHeight="1" spans="1:4">
-      <c r="A57">
-        <v>302</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>128</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>301</v>
+      </c>
+      <c r="B58" t="s">
         <v>129</v>
       </c>
-      <c r="D57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" ht="12" customHeight="1" spans="1:4">
-      <c r="A58">
-        <v>303</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>130</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>131</v>
-      </c>
-      <c r="D58" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1" spans="1:4">
       <c r="A59">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" ht="12" customHeight="1" spans="1:4">
       <c r="A60">
-        <v>401</v>
+        <v>303</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" ht="12" customHeight="1" spans="1:4">
       <c r="A61">
-        <v>402</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" ht="12" customHeight="1" spans="1:4">
       <c r="A62">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" ht="12" customHeight="1" spans="1:4">
       <c r="A63">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
         <v>139</v>
-      </c>
-      <c r="D63" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="64" ht="12" customHeight="1" spans="1:4">
       <c r="A64">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B64" t="s">
         <v>140</v>
@@ -2850,12 +2862,12 @@
         <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" ht="12" customHeight="1" spans="1:4">
       <c r="A65">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B65" t="s">
         <v>142</v>
@@ -2864,12 +2876,12 @@
         <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" ht="12" customHeight="1" spans="1:4">
       <c r="A66">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s">
         <v>144</v>
@@ -2878,12 +2890,12 @@
         <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" ht="12" customHeight="1" spans="1:4">
       <c r="A67">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s">
         <v>146</v>
@@ -2892,12 +2904,12 @@
         <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" ht="12" customHeight="1" spans="1:4">
       <c r="A68">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s">
         <v>148</v>
@@ -2906,26 +2918,26 @@
         <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" ht="12" customHeight="1" spans="1:4">
       <c r="A69">
-        <v>500</v>
+        <v>408</v>
       </c>
       <c r="B69" t="s">
         <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" ht="12" customHeight="1" spans="1:4">
       <c r="A70">
-        <v>501</v>
+        <v>409</v>
       </c>
       <c r="B70" t="s">
         <v>152</v>
@@ -2934,26 +2946,26 @@
         <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" ht="12" customHeight="1" spans="1:4">
       <c r="A71">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
       </c>
       <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
         <v>155</v>
-      </c>
-      <c r="D71" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="72" ht="12" customHeight="1" spans="1:4">
       <c r="A72">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B72" t="s">
         <v>156</v>
@@ -2962,54 +2974,54 @@
         <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" ht="12" customHeight="1" spans="1:4">
       <c r="A73">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B73" t="s">
         <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" ht="12" customHeight="1" spans="1:4">
       <c r="A74">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" ht="12" customHeight="1" spans="1:4">
       <c r="A75">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" ht="12" customHeight="1" spans="1:4">
       <c r="A76">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s">
         <v>163</v>
@@ -3018,12 +3030,12 @@
         <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" ht="12" customHeight="1" spans="1:4">
       <c r="A77">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B77" t="s">
         <v>165</v>
@@ -3032,12 +3044,12 @@
         <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" ht="12" customHeight="1" spans="1:4">
       <c r="A78">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s">
         <v>167</v>
@@ -3046,26 +3058,26 @@
         <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" ht="12" customHeight="1" spans="1:4">
       <c r="A79">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
         <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" ht="12" customHeight="1" spans="1:4">
       <c r="A80">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B80" t="s">
         <v>171</v>
@@ -3074,26 +3086,26 @@
         <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" ht="12" customHeight="1" spans="1:4">
       <c r="A81">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
         <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" ht="12" customHeight="1" spans="1:4">
       <c r="A82">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B82" t="s">
         <v>175</v>
@@ -3102,12 +3114,12 @@
         <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" ht="12" customHeight="1" spans="1:4">
       <c r="A83">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B83" t="s">
         <v>177</v>
@@ -3116,12 +3128,12 @@
         <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" ht="12" customHeight="1" spans="1:4">
       <c r="A84">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B84" t="s">
         <v>179</v>
@@ -3130,12 +3142,12 @@
         <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" ht="12" customHeight="1" spans="1:4">
       <c r="A85">
-        <v>601</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s">
         <v>181</v>
@@ -3144,32 +3156,32 @@
         <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" ht="12" customHeight="1" spans="1:4">
       <c r="A86">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
         <v>184</v>
       </c>
-      <c r="C86" t="s">
-        <v>185</v>
-      </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" ht="12" customHeight="1" spans="1:4">
       <c r="A87">
-        <v>901</v>
+        <v>601</v>
       </c>
       <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" t="s">
         <v>186</v>
-      </c>
-      <c r="C87" t="s">
-        <v>116</v>
       </c>
       <c r="D87" t="s">
         <v>187</v>
@@ -3177,7 +3189,7 @@
     </row>
     <row r="88" ht="12" customHeight="1" spans="1:4">
       <c r="A88">
-        <v>902</v>
+        <v>602</v>
       </c>
       <c r="B88" t="s">
         <v>188</v>
@@ -3191,21 +3203,21 @@
     </row>
     <row r="89" ht="12" customHeight="1" spans="1:4">
       <c r="A89">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B89" t="s">
         <v>190</v>
       </c>
       <c r="C89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" t="s">
         <v>191</v>
-      </c>
-      <c r="D89" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="90" ht="12" customHeight="1" spans="1:4">
       <c r="A90">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B90" t="s">
         <v>192</v>
@@ -3214,138 +3226,138 @@
         <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" ht="12" customHeight="1" spans="1:4">
       <c r="A91">
+        <v>903</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" ht="12" customHeight="1" spans="1:4">
+      <c r="A92">
+        <v>911</v>
+      </c>
+      <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" ht="12" customHeight="1" spans="1:4">
+      <c r="A93">
         <v>912</v>
       </c>
-      <c r="B91" t="s">
-        <v>195</v>
-      </c>
-      <c r="C91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D91" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:4">
-      <c r="A92">
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:4">
+      <c r="A94">
         <v>1000</v>
       </c>
-      <c r="B92" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>1001</v>
-      </c>
-      <c r="B93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
         <v>201</v>
       </c>
-      <c r="D93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>1002</v>
-      </c>
-      <c r="B94" t="s">
-        <v>64</v>
-      </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" t="s">
         <v>203</v>
-      </c>
-      <c r="D95" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="C97" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B100" t="s">
         <v>140</v>
@@ -3354,68 +3366,68 @@
         <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="D101" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D103" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B105" t="s">
         <v>210</v>
@@ -3424,12 +3436,12 @@
         <v>211</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B106" t="s">
         <v>212</v>
@@ -3438,12 +3450,12 @@
         <v>213</v>
       </c>
       <c r="D106" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="B107" t="s">
         <v>214</v>
@@ -3452,12 +3464,12 @@
         <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="B108" t="s">
         <v>216</v>
@@ -3466,12 +3478,12 @@
         <v>217</v>
       </c>
       <c r="D108" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B109" t="s">
         <v>218</v>
@@ -3480,12 +3492,12 @@
         <v>219</v>
       </c>
       <c r="D109" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>1101</v>
+        <v>1042</v>
       </c>
       <c r="B110" t="s">
         <v>220</v>
@@ -3494,12 +3506,12 @@
         <v>221</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2001</v>
+        <v>1043</v>
       </c>
       <c r="B111" t="s">
         <v>222</v>
@@ -3508,40 +3520,40 @@
         <v>223</v>
       </c>
       <c r="D111" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>2002</v>
+        <v>1101</v>
       </c>
       <c r="B112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" t="s">
         <v>225</v>
       </c>
-      <c r="C112" t="s">
-        <v>226</v>
-      </c>
       <c r="D112" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
         <v>227</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>228</v>
-      </c>
-      <c r="D113" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B114" t="s">
         <v>229</v>
@@ -3550,12 +3562,12 @@
         <v>230</v>
       </c>
       <c r="D114" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B115" t="s">
         <v>231</v>
@@ -3564,12 +3576,12 @@
         <v>232</v>
       </c>
       <c r="D115" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B116" t="s">
         <v>233</v>
@@ -3578,12 +3590,12 @@
         <v>234</v>
       </c>
       <c r="D116" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B117" t="s">
         <v>235</v>
@@ -3592,12 +3604,12 @@
         <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B118" t="s">
         <v>237</v>
@@ -3606,12 +3618,12 @@
         <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B119" t="s">
         <v>239</v>
@@ -3620,12 +3632,12 @@
         <v>240</v>
       </c>
       <c r="D119" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B120" t="s">
         <v>241</v>
@@ -3634,12 +3646,12 @@
         <v>242</v>
       </c>
       <c r="D120" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B121" t="s">
         <v>243</v>
@@ -3648,12 +3660,12 @@
         <v>244</v>
       </c>
       <c r="D121" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B122" t="s">
         <v>245</v>
@@ -3662,12 +3674,12 @@
         <v>246</v>
       </c>
       <c r="D122" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B123" t="s">
         <v>247</v>
@@ -3676,12 +3688,12 @@
         <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B124" t="s">
         <v>249</v>
@@ -3690,12 +3702,12 @@
         <v>250</v>
       </c>
       <c r="D124" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B125" t="s">
         <v>251</v>
@@ -3704,12 +3716,12 @@
         <v>252</v>
       </c>
       <c r="D125" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B126" t="s">
         <v>253</v>
@@ -3718,12 +3730,12 @@
         <v>254</v>
       </c>
       <c r="D126" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B127" t="s">
         <v>255</v>
@@ -3732,12 +3744,12 @@
         <v>256</v>
       </c>
       <c r="D127" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B128" t="s">
         <v>257</v>
@@ -3746,12 +3758,12 @@
         <v>258</v>
       </c>
       <c r="D128" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B129" t="s">
         <v>259</v>
@@ -3760,12 +3772,12 @@
         <v>260</v>
       </c>
       <c r="D129" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B130" t="s">
         <v>261</v>
@@ -3774,12 +3786,12 @@
         <v>262</v>
       </c>
       <c r="D130" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>9001</v>
+        <v>2019</v>
       </c>
       <c r="B131" t="s">
         <v>263</v>
@@ -3788,166 +3800,166 @@
         <v>264</v>
       </c>
       <c r="D131" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>10001</v>
+        <v>2020</v>
       </c>
       <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="s">
         <v>266</v>
       </c>
-      <c r="C132" t="s">
-        <v>267</v>
-      </c>
       <c r="D132" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>10002</v>
+        <v>9001</v>
       </c>
       <c r="B133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133" t="s">
         <v>269</v>
-      </c>
-      <c r="C133" t="s">
-        <v>270</v>
-      </c>
-      <c r="D133" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" t="s">
         <v>272</v>
-      </c>
-      <c r="C134" t="s">
-        <v>273</v>
-      </c>
-      <c r="D134" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B135" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" t="s">
         <v>275</v>
-      </c>
-      <c r="C135" t="s">
-        <v>276</v>
-      </c>
-      <c r="D135" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>10011</v>
+        <v>10003</v>
       </c>
       <c r="B136" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" t="s">
         <v>277</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>278</v>
-      </c>
-      <c r="D136" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>10012</v>
+        <v>10004</v>
       </c>
       <c r="B137" t="s">
+        <v>279</v>
+      </c>
+      <c r="C137" t="s">
         <v>280</v>
       </c>
-      <c r="C137" t="s">
-        <v>281</v>
-      </c>
       <c r="D137" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="B138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" t="s">
+        <v>282</v>
+      </c>
+      <c r="D138" t="s">
         <v>283</v>
-      </c>
-      <c r="C138" t="s">
-        <v>284</v>
-      </c>
-      <c r="D138" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>10014</v>
+        <v>10012</v>
       </c>
       <c r="B139" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" t="s">
         <v>286</v>
-      </c>
-      <c r="C139" t="s">
-        <v>287</v>
-      </c>
-      <c r="D139" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>20001</v>
+        <v>10013</v>
       </c>
       <c r="B140" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" t="s">
+        <v>288</v>
+      </c>
+      <c r="D140" t="s">
         <v>289</v>
-      </c>
-      <c r="C140" t="s">
-        <v>290</v>
-      </c>
-      <c r="D140" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>20002</v>
+        <v>10014</v>
       </c>
       <c r="B141" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" t="s">
+        <v>291</v>
+      </c>
+      <c r="D141" t="s">
         <v>292</v>
-      </c>
-      <c r="C141" t="s">
-        <v>293</v>
-      </c>
-      <c r="D141" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="B142" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" t="s">
         <v>294</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>295</v>
       </c>
-      <c r="D142" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="143" ht="12" customHeight="1" spans="1:4">
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B143" t="s">
         <v>296</v>
@@ -3956,12 +3968,12 @@
         <v>297</v>
       </c>
       <c r="D143" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="144" ht="12" customHeight="1" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144">
-        <v>20005</v>
+        <v>20003</v>
       </c>
       <c r="B144" t="s">
         <v>298</v>
@@ -3970,12 +3982,12 @@
         <v>299</v>
       </c>
       <c r="D144" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" ht="12" customHeight="1" spans="1:4">
       <c r="A145">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="B145" t="s">
         <v>300</v>
@@ -3984,40 +3996,40 @@
         <v>301</v>
       </c>
       <c r="D145" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" ht="12" customHeight="1" spans="1:4">
+      <c r="A146">
+        <v>20005</v>
+      </c>
+      <c r="B146" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146">
-        <v>30002</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>303</v>
       </c>
-      <c r="C146" t="s">
-        <v>304</v>
-      </c>
       <c r="D146" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>30003</v>
+        <v>30001</v>
       </c>
       <c r="B147" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" t="s">
         <v>305</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>306</v>
-      </c>
-      <c r="D147" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>30004</v>
+        <v>30002</v>
       </c>
       <c r="B148" t="s">
         <v>307</v>
@@ -4026,12 +4038,12 @@
         <v>308</v>
       </c>
       <c r="D148" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>30005</v>
+        <v>30003</v>
       </c>
       <c r="B149" t="s">
         <v>309</v>
@@ -4040,12 +4052,12 @@
         <v>310</v>
       </c>
       <c r="D149" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>30006</v>
+        <v>30004</v>
       </c>
       <c r="B150" t="s">
         <v>311</v>
@@ -4054,12 +4066,12 @@
         <v>312</v>
       </c>
       <c r="D150" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>30007</v>
+        <v>30005</v>
       </c>
       <c r="B151" t="s">
         <v>313</v>
@@ -4068,12 +4080,12 @@
         <v>314</v>
       </c>
       <c r="D151" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>30008</v>
+        <v>30006</v>
       </c>
       <c r="B152" t="s">
         <v>315</v>
@@ -4082,12 +4094,12 @@
         <v>316</v>
       </c>
       <c r="D152" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>30009</v>
+        <v>30007</v>
       </c>
       <c r="B153" t="s">
         <v>317</v>
@@ -4096,12 +4108,12 @@
         <v>318</v>
       </c>
       <c r="D153" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>30010</v>
+        <v>30008</v>
       </c>
       <c r="B154" t="s">
         <v>319</v>
@@ -4110,7 +4122,35 @@
         <v>320</v>
       </c>
       <c r="D154" t="s">
-        <v>302</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>30009</v>
+      </c>
+      <c r="B155" t="s">
+        <v>321</v>
+      </c>
+      <c r="C155" t="s">
+        <v>322</v>
+      </c>
+      <c r="D155" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>30010</v>
+      </c>
+      <c r="B156" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" t="s">
+        <v>324</v>
+      </c>
+      <c r="D156" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
